--- a/Results/np_swab_results.xlsx
+++ b/Results/np_swab_results.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kzulauf/Documents/GitHub/Covid19-NP-Swab/Results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9A28F3E-AE9F-AB40-8679-6681DD3C4178}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2360" windowWidth="27640" windowHeight="16940" xr2:uid="{3FE5DD8B-183F-1947-A8DC-89D84F82E17E}"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="28560" windowHeight="17760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -25,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
   <si>
     <t>Date of test</t>
   </si>
@@ -328,12 +325,15 @@
   </si>
   <si>
     <t>need review of smear pics</t>
+  </si>
+  <si>
+    <t>Specimen_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -473,7 +473,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -525,7 +525,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -719,21 +719,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF5CDB9-044C-3F4C-B70F-5DE9C4865A54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="28.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
@@ -749,8 +752,10 @@
     <col min="12" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="56" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:12" ht="36">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -785,7 +790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="91" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -819,7 +824,7 @@
       </c>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="42">
       <c r="A3" s="4" t="s">
         <v>21</v>
       </c>
@@ -853,7 +858,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="42">
       <c r="A4" s="4" t="s">
         <v>30</v>
       </c>
@@ -887,7 +892,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:12" ht="70" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="70">
       <c r="A5" s="4" t="s">
         <v>33</v>
       </c>
@@ -921,7 +926,7 @@
       </c>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" spans="1:12" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="44" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
@@ -953,7 +958,7 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
     </row>
-    <row r="7" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="56">
       <c r="A7" s="4" t="s">
         <v>39</v>
       </c>
@@ -987,7 +992,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
@@ -1017,7 +1022,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="42">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -1047,7 +1052,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="42">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
@@ -1075,7 +1080,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="42">
       <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
@@ -1105,7 +1110,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="84" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="84">
       <c r="A12" s="4" t="s">
         <v>52</v>
       </c>
@@ -1135,7 +1140,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="84" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="84">
       <c r="A13" s="4" t="s">
         <v>56</v>
       </c>
@@ -1163,7 +1168,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="84" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="84">
       <c r="A14" s="4" t="s">
         <v>58</v>
       </c>
@@ -1193,7 +1198,7 @@
       </c>
       <c r="L14" s="4"/>
     </row>
-    <row r="15" spans="1:12" ht="84" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="84">
       <c r="A15" s="4" t="s">
         <v>60</v>
       </c>
@@ -1223,7 +1228,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="56">
       <c r="A16" s="4" t="s">
         <v>66</v>
       </c>
@@ -1253,7 +1258,7 @@
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="56">
       <c r="A17" s="4" t="s">
         <v>70</v>
       </c>
@@ -1283,7 +1288,7 @@
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
-    <row r="18" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="56">
       <c r="A18" s="4" t="s">
         <v>75</v>
       </c>
@@ -1313,7 +1318,7 @@
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
-    <row r="19" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="56">
       <c r="A19" s="4" t="s">
         <v>79</v>
       </c>
@@ -1343,7 +1348,7 @@
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
     </row>
-    <row r="20" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="56">
       <c r="A20" s="4" t="s">
         <v>82</v>
       </c>
@@ -1373,7 +1378,7 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="56">
       <c r="A21" s="4" t="s">
         <v>85</v>
       </c>
@@ -1403,7 +1408,7 @@
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
     </row>
-    <row r="22" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="56">
       <c r="A22" s="4" t="s">
         <v>88</v>
       </c>
@@ -1433,7 +1438,7 @@
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
     </row>
-    <row r="23" spans="1:12" ht="56" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="56">
       <c r="A23" s="4" t="s">
         <v>91</v>
       </c>
@@ -1463,7 +1468,7 @@
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
     </row>
-    <row r="24" spans="1:12" ht="112" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="112">
       <c r="A24" s="4" t="s">
         <v>93</v>
       </c>
@@ -1497,8 +1502,13 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D24" r:id="rId1" xr:uid="{D198D7DA-04D1-1549-A2B1-485424E8AE13}"/>
+    <hyperlink ref="D24" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Results/np_swab_results.xlsx
+++ b/Results/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
   <si>
     <t>Date of test</t>
   </si>
@@ -174,12 +174,6 @@
     <t>Jifei Material 2</t>
   </si>
   <si>
-    <t>Material 2</t>
-  </si>
-  <si>
-    <t>NOT SWAB MATERIAL ONLY</t>
-  </si>
-  <si>
     <t>Formlabs - Honey</t>
   </si>
   <si>
@@ -328,6 +322,12 @@
   </si>
   <si>
     <t>Specimen_id</t>
+  </si>
+  <si>
+    <t>NOT SWAB; MATERIAL ONLY</t>
+  </si>
+  <si>
+    <t>(meth)acrylated urethane photopolymer</t>
   </si>
 </sst>
 </file>
@@ -733,7 +733,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -754,7 +754,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="36">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1022,7 +1022,7 @@
       </c>
       <c r="L8" s="4"/>
     </row>
-    <row r="9" spans="1:12" ht="42">
+    <row r="9" spans="1:12" ht="24">
       <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
@@ -1052,7 +1052,7 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="1:12" ht="42">
+    <row r="10" spans="1:12">
       <c r="A10" s="4" t="s">
         <v>46</v>
       </c>
@@ -1065,7 +1065,9 @@
       <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="4"/>
+      <c r="E10" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4" t="s">
         <v>48</v>
@@ -1080,7 +1082,7 @@
       </c>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:12" ht="42">
+    <row r="11" spans="1:12" ht="24">
       <c r="A11" s="4" t="s">
         <v>49</v>
       </c>
@@ -1092,7 +1094,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4" t="s">
@@ -1100,10 +1102,10 @@
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>36</v>
@@ -1112,7 +1114,7 @@
     </row>
     <row r="12" spans="1:12" ht="84">
       <c r="A12" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5">
         <v>43912</v>
@@ -1121,16 +1123,16 @@
         <v>22</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>36</v>
@@ -1142,7 +1144,7 @@
     </row>
     <row r="13" spans="1:12" ht="84">
       <c r="A13" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B13" s="5">
         <v>43912</v>
@@ -1154,14 +1156,14 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>36</v>
@@ -1170,7 +1172,7 @@
     </row>
     <row r="14" spans="1:12" ht="84">
       <c r="A14" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B14" s="5">
         <v>43912</v>
@@ -1179,19 +1181,19 @@
         <v>22</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>55</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>57</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>36</v>
@@ -1200,7 +1202,7 @@
     </row>
     <row r="15" spans="1:12" ht="84">
       <c r="A15" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" s="5">
         <v>43912</v>
@@ -1209,44 +1211,44 @@
         <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="56">
       <c r="A16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="5">
+        <v>43912</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>66</v>
-      </c>
-      <c r="B16" s="5">
-        <v>43912</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>68</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4" t="s">
@@ -1260,87 +1262,87 @@
     </row>
     <row r="17" spans="1:12" ht="56">
       <c r="A17" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="5">
+        <v>43912</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>70</v>
-      </c>
-      <c r="B17" s="5">
-        <v>43912</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12" ht="56">
       <c r="A18" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="5">
+        <v>43912</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="B18" s="5">
-        <v>43912</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4" t="s">
         <v>36</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12" ht="56">
       <c r="A19" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="5">
+        <v>43912</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B19" s="5">
-        <v>43912</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>36</v>
@@ -1350,23 +1352,23 @@
     </row>
     <row r="20" spans="1:12" ht="56">
       <c r="A20" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="5">
+        <v>43912</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="B20" s="5">
-        <v>43912</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4" t="s">
@@ -1380,23 +1382,23 @@
     </row>
     <row r="21" spans="1:12" ht="56">
       <c r="A21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="5">
+        <v>43912</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>85</v>
-      </c>
-      <c r="B21" s="5">
-        <v>43912</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="4" t="s">
@@ -1410,23 +1412,23 @@
     </row>
     <row r="22" spans="1:12" ht="56">
       <c r="A22" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="5">
+        <v>43912</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="B22" s="5">
-        <v>43912</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="4" t="s">
@@ -1440,7 +1442,7 @@
     </row>
     <row r="23" spans="1:12" ht="56">
       <c r="A23" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B23" s="5">
         <v>43912</v>
@@ -1449,14 +1451,14 @@
         <v>22</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H23" s="4"/>
       <c r="I23" s="4" t="s">
@@ -1470,32 +1472,32 @@
     </row>
     <row r="24" spans="1:12" ht="112">
       <c r="A24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="5">
+        <v>43912</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="5">
-        <v>43912</v>
-      </c>
-      <c r="C24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="F24" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="G24" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>98</v>
       </c>
       <c r="H24" s="4"/>
       <c r="I24" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>

--- a/Results/np_swab_results.xlsx
+++ b/Results/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="103">
   <si>
     <t>Date of test</t>
   </si>
@@ -328,13 +328,16 @@
   </si>
   <si>
     <t>(meth)acrylated urethane photopolymer</t>
+  </si>
+  <si>
+    <t>Formlabs Surgical Guide img/FormLabs/surgical_guide_technical_data_sheet_en.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -370,6 +373,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -388,9 +399,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -413,7 +425,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -733,7 +746,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1112,7 +1125,7 @@
       </c>
       <c r="L11" s="4"/>
     </row>
-    <row r="12" spans="1:12" ht="84">
+    <row r="12" spans="1:12" ht="36">
       <c r="A12" s="4" t="s">
         <v>50</v>
       </c>
@@ -1125,7 +1138,9 @@
       <c r="D12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E12" s="4"/>
+      <c r="E12" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4" t="s">
         <v>52</v>
@@ -1142,7 +1157,7 @@
       </c>
       <c r="L12" s="4"/>
     </row>
-    <row r="13" spans="1:12" ht="84">
+    <row r="13" spans="1:12" ht="36">
       <c r="A13" s="4" t="s">
         <v>54</v>
       </c>
@@ -1153,7 +1168,9 @@
         <v>22</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4" t="s">
         <v>52</v>
@@ -1170,7 +1187,7 @@
       </c>
       <c r="L13" s="4"/>
     </row>
-    <row r="14" spans="1:12" ht="84">
+    <row r="14" spans="1:12" ht="36">
       <c r="A14" s="4" t="s">
         <v>56</v>
       </c>
@@ -1183,7 +1200,9 @@
       <c r="D14" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="4"/>
+      <c r="E14" s="4" t="s">
+        <v>102</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4" t="s">
         <v>52</v>
@@ -1507,6 +1526,7 @@
     <hyperlink ref="D24" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Results/np_swab_results.xlsx
+++ b/Results/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="342">
   <si>
     <t>Date of test</t>
   </si>
@@ -757,9 +757,6 @@
     <t>EV_1</t>
   </si>
   <si>
-    <t>DOWEL</t>
-  </si>
-  <si>
     <t>PCA 2000. 10 minutes. 100%</t>
   </si>
   <si>
@@ -873,6 +870,186 @@
   </si>
   <si>
     <t>Did not pass (not many cells collected)</t>
+  </si>
+  <si>
+    <t>*Tested this material as was closest to desirable design although did not pass Test 1</t>
+  </si>
+  <si>
+    <t>(not tested, only one swab which was tested for PCR)</t>
+  </si>
+  <si>
+    <t>(In testing)</t>
+  </si>
+  <si>
+    <t>(In-testing)</t>
+  </si>
+  <si>
+    <t>DOWEL. For material testing</t>
+  </si>
+  <si>
+    <t>PVA</t>
+  </si>
+  <si>
+    <t>Chemical for material testing. Cas: 9002-89-5</t>
+  </si>
+  <si>
+    <t>March 25th, 2020</t>
+  </si>
+  <si>
+    <t>Polly(Vinyl Alcohol)</t>
+  </si>
+  <si>
+    <t>Sigma-Aldrich. Adama; Wyss</t>
+  </si>
+  <si>
+    <t>Fil_Flt</t>
+  </si>
+  <si>
+    <t>White filament (for material testing)</t>
+  </si>
+  <si>
+    <t>March 25h, 2020</t>
+  </si>
+  <si>
+    <t>3DF-2 (Raw) (Polyurethane + PVA)</t>
+  </si>
+  <si>
+    <t>Adama; Wyss</t>
+  </si>
+  <si>
+    <t>Fil_Lay</t>
+  </si>
+  <si>
+    <t>3DF-1 (polyurethane + PVA)</t>
+  </si>
+  <si>
+    <t>Adama Sesay, Wyss Institude</t>
+  </si>
+  <si>
+    <t>Sc_M</t>
+  </si>
+  <si>
+    <t>Jar filled with white substance</t>
+  </si>
+  <si>
+    <t>Scotch Magic Tape</t>
+  </si>
+  <si>
+    <t>3M. dropped off by Adama Sesay; Wyss Institute</t>
+  </si>
+  <si>
+    <t>Sc_CC</t>
+  </si>
+  <si>
+    <t>Scotch Crystal Clear</t>
+  </si>
+  <si>
+    <t>W_2_1</t>
+  </si>
+  <si>
+    <t>White swab w/ silicon glue and sugar textured head</t>
+  </si>
+  <si>
+    <t>SG1. Silicon glue and sugar</t>
+  </si>
+  <si>
+    <t>Wyss Institute (Adama Shesay)</t>
+  </si>
+  <si>
+    <t>W_2_2</t>
+  </si>
+  <si>
+    <t>Black swab w/ silicon glue and sugar textured head</t>
+  </si>
+  <si>
+    <t>SG2. Silicon glue and Sugar</t>
+  </si>
+  <si>
+    <t>W_2_3</t>
+  </si>
+  <si>
+    <t>Rayon and crystal clear glue textured head</t>
+  </si>
+  <si>
+    <t>3M1. Rayon fiber and scotch crystal clear glue head with polycarbonate swab</t>
+  </si>
+  <si>
+    <t>W_2_4</t>
+  </si>
+  <si>
+    <t>Rayon and magic tape textured head</t>
+  </si>
+  <si>
+    <t>3M2. Rayon fiber with scoth magic tape swab head on a nylon swab</t>
+  </si>
+  <si>
+    <t>W_2_5</t>
+  </si>
+  <si>
+    <t>Rayon fiber and scotch crysal clear textured head</t>
+  </si>
+  <si>
+    <t>3M3 Rayon Fiber with scotch crystal clear textured head on nylon swab</t>
+  </si>
+  <si>
+    <t>W_2_6</t>
+  </si>
+  <si>
+    <t>Rayon fiber/ Scotch magnetic tape textured head</t>
+  </si>
+  <si>
+    <t>3M4 Rayon Fiber/Scotch magic tape textured head on polycarbonate head</t>
+  </si>
+  <si>
+    <t>W_2_7</t>
+  </si>
+  <si>
+    <t>Nylon fiber/magic tape</t>
+  </si>
+  <si>
+    <t>3M5 Nylon Fiber/Magic Tape textured head on polycarbornate swab</t>
+  </si>
+  <si>
+    <t>W_2_8</t>
+  </si>
+  <si>
+    <t>3M6 Nylon Fiber/magi tape textured head on nylon swab</t>
+  </si>
+  <si>
+    <t>W_2_9</t>
+  </si>
+  <si>
+    <t>Nylon FIber/Crystal Clear</t>
+  </si>
+  <si>
+    <t>3M_7 Nylong fiber/ crystal clear textured head on a nylon swab</t>
+  </si>
+  <si>
+    <t>W_2_10</t>
+  </si>
+  <si>
+    <t>Martch 25th, 2020</t>
+  </si>
+  <si>
+    <t>3M8 nylon fiber/magic tape texted head on a nylon swab</t>
+  </si>
+  <si>
+    <t>W_2_11</t>
+  </si>
+  <si>
+    <t>Nylon FIber/ crytal clear textured head</t>
+  </si>
+  <si>
+    <t>3M9 nylon fiber w/ crystal clear textured head on polycarb</t>
+  </si>
+  <si>
+    <t>W_2_12</t>
+  </si>
+  <si>
+    <t>Sugar on nylon</t>
+  </si>
+  <si>
+    <t>PDMS [sugar on nylon]</t>
   </si>
 </sst>
 </file>
@@ -1347,7 +1524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1358,10 +1535,10 @@
   <dimension ref="A1:AA1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E103" sqref="E103"/>
+      <selection pane="bottomRight" sqref="A1:AA1026"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1382,7 +1559,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="51.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>93</v>
@@ -1800,7 +1977,9 @@
         <v>44</v>
       </c>
       <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="M9" s="6"/>
       <c r="N9" s="8"/>
       <c r="O9" s="6"/>
@@ -1819,7 +1998,7 @@
     </row>
     <row r="10" spans="1:27" ht="39" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
@@ -2176,10 +2355,10 @@
       <c r="J18" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="8"/>
       <c r="O18" s="6"/>
@@ -2237,7 +2416,7 @@
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
     </row>
-    <row r="20" spans="1:27" ht="77.25" thickBot="1">
+    <row r="20" spans="1:27" ht="102.75" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>112</v>
       </c>
@@ -2260,11 +2439,15 @@
       <c r="J20" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="6"/>
+      <c r="K20" s="6" t="s">
+        <v>115</v>
+      </c>
       <c r="L20" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="M20" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>282</v>
+      </c>
       <c r="N20" s="8"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2567,7 +2750,7 @@
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
     </row>
-    <row r="28" spans="1:27" ht="26.25" thickBot="1">
+    <row r="28" spans="1:27" ht="39" thickBot="1">
       <c r="A28" s="6" t="s">
         <v>131</v>
       </c>
@@ -2586,8 +2769,12 @@
       <c r="J28" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+      <c r="K28" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="M28" s="6"/>
       <c r="N28" s="8"/>
       <c r="O28" s="6"/>
@@ -2985,7 +3172,7 @@
         <v>89</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="6" t="s">
@@ -3126,7 +3313,9 @@
       <c r="K41" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L41" s="8"/>
+      <c r="L41" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="6"/>
@@ -3512,7 +3701,9 @@
       <c r="K51" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="L51" s="8"/>
+      <c r="L51" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="M51" s="8" t="s">
         <v>168</v>
       </c>
@@ -3608,7 +3799,7 @@
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8" t="s">
@@ -3617,7 +3808,9 @@
       <c r="K54" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L54" s="8"/>
+      <c r="L54" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="6"/>
@@ -3751,7 +3944,7 @@
         <v>21</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>180</v>
@@ -3796,7 +3989,7 @@
         <v>21</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>180</v>
@@ -3841,7 +4034,7 @@
         <v>21</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>180</v>
@@ -3857,7 +4050,9 @@
       <c r="K60" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L60" s="8"/>
+      <c r="L60" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
       <c r="O60" s="6"/>
@@ -3888,7 +4083,7 @@
         <v>21</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>180</v>
@@ -3935,7 +4130,7 @@
         <v>21</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>180</v>
@@ -3980,7 +4175,7 @@
         <v>21</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>180</v>
@@ -4027,7 +4222,7 @@
         <v>21</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>180</v>
@@ -4074,7 +4269,7 @@
         <v>21</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F65" s="8" t="s">
         <v>180</v>
@@ -4177,7 +4372,7 @@
         <v>21</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>202</v>
@@ -4193,7 +4388,9 @@
       <c r="K68" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L68" s="8"/>
+      <c r="L68" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
       <c r="O68" s="6"/>
@@ -4253,7 +4450,7 @@
         <v>21</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -4267,7 +4464,9 @@
       <c r="K70" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L70" s="8"/>
+      <c r="L70" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
       <c r="O70" s="6"/>
@@ -4298,7 +4497,7 @@
         <v>21</v>
       </c>
       <c r="E71" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -4401,7 +4600,7 @@
         <v>21</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
@@ -4415,7 +4614,9 @@
       <c r="K74" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L74" s="8"/>
+      <c r="L74" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
       <c r="O74" s="6"/>
@@ -4504,7 +4705,7 @@
         <v>21</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -4518,7 +4719,9 @@
       <c r="K77" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L77" s="8"/>
+      <c r="L77" s="8" t="s">
+        <v>285</v>
+      </c>
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
       <c r="O77" s="6"/>
@@ -4549,7 +4752,7 @@
         <v>21</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -4558,7 +4761,7 @@
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>35</v>
@@ -4594,7 +4797,7 @@
         <v>21</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -4603,7 +4806,7 @@
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>35</v>
@@ -4639,7 +4842,7 @@
         <v>21</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
@@ -4648,7 +4851,7 @@
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>35</v>
@@ -4684,7 +4887,7 @@
         <v>21</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -4693,7 +4896,7 @@
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K81" s="8" t="s">
         <v>35</v>
@@ -4729,7 +4932,7 @@
         <v>21</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
@@ -4842,7 +5045,7 @@
         <v>235</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
@@ -4875,7 +5078,7 @@
         <v>21</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
@@ -4887,7 +5090,7 @@
         <v>235</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
@@ -4920,7 +5123,7 @@
         <v>21</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
@@ -4932,7 +5135,7 @@
         <v>235</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
@@ -4965,7 +5168,7 @@
         <v>21</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
@@ -4977,7 +5180,7 @@
         <v>242</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
@@ -5054,12 +5257,12 @@
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
     </row>
-    <row r="91" spans="1:27" ht="26.25" thickBot="1">
+    <row r="91" spans="1:27" ht="39" thickBot="1">
       <c r="A91" s="8" t="s">
         <v>243</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>201</v>
@@ -5069,16 +5272,18 @@
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G91" s="8"/>
       <c r="H91" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
+      <c r="L91" s="8" t="s">
+        <v>285</v>
+      </c>
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
       <c r="O91" s="6"/>
@@ -5095,12 +5300,12 @@
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
     </row>
-    <row r="92" spans="1:27" ht="26.25" thickBot="1">
+    <row r="92" spans="1:27" ht="39" thickBot="1">
       <c r="A92" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>201</v>
@@ -5110,13 +5315,13 @@
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="G92" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="H92" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
@@ -5138,12 +5343,12 @@
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
     </row>
-    <row r="93" spans="1:27" ht="26.25" thickBot="1">
+    <row r="93" spans="1:27" ht="39" thickBot="1">
       <c r="A93" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>201</v>
@@ -5153,13 +5358,13 @@
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="G93" s="8" t="s">
-        <v>252</v>
-      </c>
       <c r="H93" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
@@ -5181,12 +5386,12 @@
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
     </row>
-    <row r="94" spans="1:27" ht="26.25" thickBot="1">
+    <row r="94" spans="1:27" ht="39" thickBot="1">
       <c r="A94" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>201</v>
@@ -5196,13 +5401,13 @@
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
@@ -5282,19 +5487,33 @@
       <c r="Z96" s="6"/>
       <c r="AA96" s="6"/>
     </row>
-    <row r="97" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
+    <row r="97" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A97" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
+      <c r="F97" s="8" t="s">
+        <v>290</v>
+      </c>
       <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
+      <c r="H97" s="8" t="s">
+        <v>291</v>
+      </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
-      <c r="L97" s="8"/>
+      <c r="L97" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
       <c r="O97" s="6"/>
@@ -5311,19 +5530,33 @@
       <c r="Z97" s="6"/>
       <c r="AA97" s="6"/>
     </row>
-    <row r="98" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A98" s="8"/>
-      <c r="B98" s="8"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
+    <row r="98" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A98" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
+      <c r="F98" s="8" t="s">
+        <v>295</v>
+      </c>
       <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
+      <c r="H98" s="8" t="s">
+        <v>296</v>
+      </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
-      <c r="L98" s="8"/>
+      <c r="L98" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
       <c r="O98" s="6"/>
@@ -5340,19 +5573,33 @@
       <c r="Z98" s="6"/>
       <c r="AA98" s="6"/>
     </row>
-    <row r="99" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A99" s="8"/>
-      <c r="B99" s="8"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+    <row r="99" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A99" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
+      <c r="F99" s="8" t="s">
+        <v>298</v>
+      </c>
       <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
+      <c r="H99" s="8" t="s">
+        <v>299</v>
+      </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
+      <c r="L99" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
       <c r="O99" s="6"/>
@@ -5369,15 +5616,27 @@
       <c r="Z99" s="6"/>
       <c r="AA99" s="6"/>
     </row>
-    <row r="100" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A100" s="8"/>
-      <c r="B100" s="8"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+    <row r="100" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A100" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
+      <c r="F100" s="8" t="s">
+        <v>302</v>
+      </c>
       <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
+      <c r="H100" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
@@ -5398,15 +5657,27 @@
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
     </row>
-    <row r="101" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
+    <row r="101" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A101" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
+      <c r="F101" s="8" t="s">
+        <v>305</v>
+      </c>
       <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
+      <c r="H101" s="8" t="s">
+        <v>303</v>
+      </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
@@ -5427,15 +5698,27 @@
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
     </row>
-    <row r="102" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A102" s="8"/>
-      <c r="B102" s="8"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
+    <row r="102" spans="1:27" ht="77.25" thickBot="1">
+      <c r="A102" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
+      <c r="F102" s="8" t="s">
+        <v>308</v>
+      </c>
       <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
+      <c r="H102" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
@@ -5456,15 +5739,27 @@
       <c r="Z102" s="6"/>
       <c r="AA102" s="6"/>
     </row>
-    <row r="103" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A103" s="8"/>
-      <c r="B103" s="8"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
+    <row r="103" spans="1:27" ht="77.25" thickBot="1">
+      <c r="A103" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
+      <c r="F103" s="8" t="s">
+        <v>312</v>
+      </c>
       <c r="G103" s="8"/>
-      <c r="H103" s="8"/>
+      <c r="H103" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
@@ -5485,15 +5780,27 @@
       <c r="Z103" s="6"/>
       <c r="AA103" s="6"/>
     </row>
-    <row r="104" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A104" s="8"/>
-      <c r="B104" s="8"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
+    <row r="104" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A104" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E104" s="8"/>
-      <c r="F104" s="8"/>
+      <c r="F104" s="8" t="s">
+        <v>315</v>
+      </c>
       <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
+      <c r="H104" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
@@ -5514,15 +5821,27 @@
       <c r="Z104" s="6"/>
       <c r="AA104" s="6"/>
     </row>
-    <row r="105" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A105" s="8"/>
-      <c r="B105" s="8"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
+    <row r="105" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A105" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
+      <c r="F105" s="8" t="s">
+        <v>318</v>
+      </c>
       <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
+      <c r="H105" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
@@ -5543,15 +5862,27 @@
       <c r="Z105" s="6"/>
       <c r="AA105" s="6"/>
     </row>
-    <row r="106" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A106" s="8"/>
-      <c r="B106" s="8"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
+    <row r="106" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A106" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E106" s="8"/>
-      <c r="F106" s="8"/>
+      <c r="F106" s="8" t="s">
+        <v>321</v>
+      </c>
       <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
+      <c r="H106" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
@@ -5572,15 +5903,27 @@
       <c r="Z106" s="6"/>
       <c r="AA106" s="6"/>
     </row>
-    <row r="107" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A107" s="8"/>
-      <c r="B107" s="8"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
+    <row r="107" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A107" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E107" s="8"/>
-      <c r="F107" s="8"/>
+      <c r="F107" s="8" t="s">
+        <v>324</v>
+      </c>
       <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
+      <c r="H107" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
@@ -5601,15 +5944,27 @@
       <c r="Z107" s="6"/>
       <c r="AA107" s="6"/>
     </row>
-    <row r="108" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A108" s="8"/>
-      <c r="B108" s="8"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
+    <row r="108" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A108" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D108" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E108" s="8"/>
-      <c r="F108" s="8"/>
+      <c r="F108" s="8" t="s">
+        <v>327</v>
+      </c>
       <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
+      <c r="H108" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
@@ -5630,15 +5985,27 @@
       <c r="Z108" s="6"/>
       <c r="AA108" s="6"/>
     </row>
-    <row r="109" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A109" s="8"/>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
+    <row r="109" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A109" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
+      <c r="F109" s="8" t="s">
+        <v>329</v>
+      </c>
       <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
+      <c r="H109" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
@@ -5659,15 +6026,27 @@
       <c r="Z109" s="6"/>
       <c r="AA109" s="6"/>
     </row>
-    <row r="110" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A110" s="8"/>
-      <c r="B110" s="8"/>
-      <c r="C110" s="8"/>
-      <c r="D110" s="8"/>
+    <row r="110" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A110" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E110" s="8"/>
-      <c r="F110" s="8"/>
+      <c r="F110" s="8" t="s">
+        <v>332</v>
+      </c>
       <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
+      <c r="H110" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
@@ -5688,15 +6067,27 @@
       <c r="Z110" s="6"/>
       <c r="AA110" s="6"/>
     </row>
-    <row r="111" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A111" s="8"/>
-      <c r="B111" s="8"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+    <row r="111" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A111" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E111" s="8"/>
-      <c r="F111" s="8"/>
+      <c r="F111" s="8" t="s">
+        <v>335</v>
+      </c>
       <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
+      <c r="H111" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
@@ -5717,15 +6108,27 @@
       <c r="Z111" s="6"/>
       <c r="AA111" s="6"/>
     </row>
-    <row r="112" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A112" s="8"/>
-      <c r="B112" s="8"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
+    <row r="112" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A112" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
+      <c r="F112" s="8" t="s">
+        <v>338</v>
+      </c>
       <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
+      <c r="H112" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
@@ -5746,19 +6149,33 @@
       <c r="Z112" s="6"/>
       <c r="AA112" s="6"/>
     </row>
-    <row r="113" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
+    <row r="113" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A113" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E113" s="8"/>
-      <c r="F113" s="8"/>
+      <c r="F113" s="8" t="s">
+        <v>341</v>
+      </c>
       <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
+      <c r="H113" s="8" t="s">
+        <v>309</v>
+      </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
-      <c r="L113" s="8"/>
+      <c r="L113" s="8" t="s">
+        <v>284</v>
+      </c>
       <c r="M113" s="8"/>
       <c r="N113" s="8"/>
       <c r="O113" s="6"/>
@@ -32257,7 +32674,7 @@
     <hyperlink ref="E37" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Results/np_swab_results.xlsx
+++ b/Results/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="351">
   <si>
     <t>Date of test</t>
   </si>
@@ -136,15 +136,6 @@
   </si>
   <si>
     <t>img/Copan_BD/copan_BD_ESwab_collection_and_transport_system_220532.png</t>
-  </si>
-  <si>
-    <t>Hologic Aptima LBL-06548</t>
-  </si>
-  <si>
-    <t>img/Hologic/hologic_aptima_LBL-06548.png img/Hologic/hologic_aptima_LBL-06850.png</t>
-  </si>
-  <si>
-    <t>There are two swabs in this kit. Both pass</t>
   </si>
   <si>
     <t>Copan ESwab 220245</t>
@@ -1050,6 +1041,42 @@
   </si>
   <si>
     <t>PDMS [sugar on nylon]</t>
+  </si>
+  <si>
+    <t>img/Wyss/W_2_1</t>
+  </si>
+  <si>
+    <t>img/Wyss/W_2_2</t>
+  </si>
+  <si>
+    <t>img/Wyss/W_2_3</t>
+  </si>
+  <si>
+    <t>img/Wyss/W_2_4</t>
+  </si>
+  <si>
+    <t>img/Wyss/W_2_5</t>
+  </si>
+  <si>
+    <t>img/Wyss/W_2_6</t>
+  </si>
+  <si>
+    <t>img/Wyss/W_2_7</t>
+  </si>
+  <si>
+    <t>img/Wyss/W_2_8</t>
+  </si>
+  <si>
+    <t>img/Wyss/W_2_9</t>
+  </si>
+  <si>
+    <t>img/Wyss/W_2_10</t>
+  </si>
+  <si>
+    <t>img/Wyss/W_2_11</t>
+  </si>
+  <si>
+    <t>img/Wyss/W_2_12</t>
   </si>
 </sst>
 </file>
@@ -1524,7 +1551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1535,10 +1562,10 @@
   <dimension ref="A1:AA1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B104" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:AA1026"/>
+      <selection pane="bottomRight" activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1559,10 +1586,10 @@
   <sheetData>
     <row r="1" spans="1:27" ht="51.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -1640,7 +1667,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>19</v>
@@ -1855,7 +1882,7 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
     </row>
-    <row r="7" spans="1:27" ht="51.75" thickBot="1">
+    <row r="7" spans="1:27" ht="16.5" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>38</v>
       </c>
@@ -1867,7 +1894,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6" t="s">
@@ -1880,15 +1907,11 @@
         <v>26</v>
       </c>
       <c r="J7" s="6"/>
-      <c r="K7" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="K7" s="6"/>
       <c r="L7" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="6" t="s">
-        <v>40</v>
-      </c>
+      <c r="M7" s="6"/>
       <c r="N7" s="8"/>
       <c r="O7" s="6"/>
       <c r="P7" s="6"/>
@@ -1904,9 +1927,9 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
     </row>
-    <row r="8" spans="1:27" ht="16.5" thickBot="1">
+    <row r="8" spans="1:27" ht="26.25" thickBot="1">
       <c r="A8" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="7">
@@ -1916,7 +1939,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="F8" s="6"/>
       <c r="G8" s="6" t="s">
@@ -1928,7 +1951,9 @@
       <c r="I8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6" t="s">
         <v>35</v>
@@ -1949,9 +1974,9 @@
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
     </row>
-    <row r="9" spans="1:27" ht="26.25" thickBot="1">
+    <row r="9" spans="1:27" ht="39" thickBot="1">
       <c r="A9" s="6" t="s">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
@@ -1961,22 +1986,18 @@
         <v>21</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="F9" s="6"/>
-      <c r="G9" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="G9" s="6"/>
       <c r="H9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="K9" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="L9" s="6" t="s">
         <v>35</v>
       </c>
@@ -1998,7 +2019,7 @@
     </row>
     <row r="10" spans="1:27" ht="39" thickBot="1">
       <c r="A10" s="6" t="s">
-        <v>257</v>
+        <v>43</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="7">
@@ -2008,17 +2029,21 @@
         <v>21</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="6"/>
+        <v>88</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>93</v>
+      </c>
       <c r="K10" s="6" t="s">
-        <v>35</v>
+        <v>93</v>
       </c>
       <c r="L10" s="6" t="s">
         <v>35</v>
@@ -2039,34 +2064,28 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
     </row>
-    <row r="11" spans="1:27" ht="39" thickBot="1">
+    <row r="11" spans="1:27" ht="51.75" thickBot="1">
       <c r="A11" s="6" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="C11" s="7">
-        <v>43912</v>
+      <c r="C11" s="6" t="s">
+        <v>95</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>91</v>
-      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>45</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
       <c r="L11" s="6" t="s">
         <v>35</v>
       </c>
@@ -2086,31 +2105,19 @@
       <c r="Z11" s="6"/>
       <c r="AA11" s="6"/>
     </row>
-    <row r="12" spans="1:27" ht="51.75" thickBot="1">
-      <c r="A12" s="6" t="s">
-        <v>97</v>
-      </c>
+    <row r="12" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A12" s="6"/>
       <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>21</v>
-      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>100</v>
-      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
-      <c r="L12" s="6" t="s">
-        <v>35</v>
-      </c>
+      <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="8"/>
       <c r="O12" s="6"/>
@@ -2127,19 +2134,35 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
     </row>
-    <row r="13" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:27" ht="39" thickBot="1">
+      <c r="A13" s="6" t="s">
+        <v>98</v>
+      </c>
       <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="7">
+        <v>43912</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>45</v>
+      </c>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="M13" s="6"/>
       <c r="N13" s="8"/>
       <c r="O13" s="6"/>
@@ -2158,7 +2181,7 @@
     </row>
     <row r="14" spans="1:27" ht="39" thickBot="1">
       <c r="A14" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="7">
@@ -2168,19 +2191,19 @@
         <v>21</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="L14" s="6" t="s">
         <v>35</v>
@@ -2203,7 +2226,7 @@
     </row>
     <row r="15" spans="1:27" ht="39" thickBot="1">
       <c r="A15" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="7">
@@ -2213,19 +2236,19 @@
         <v>21</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L15" s="6" t="s">
         <v>35</v>
@@ -2246,9 +2269,9 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
     </row>
-    <row r="16" spans="1:27" ht="39" thickBot="1">
+    <row r="16" spans="1:27" ht="77.25" thickBot="1">
       <c r="A16" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="7">
@@ -2258,23 +2281,19 @@
         <v>21</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="8"/>
       <c r="O16" s="6"/>
@@ -2308,13 +2327,15 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K17" s="6"/>
+        <v>103</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="8"/>
@@ -2332,9 +2353,9 @@
       <c r="Z17" s="6"/>
       <c r="AA17" s="6"/>
     </row>
-    <row r="18" spans="1:27" ht="77.25" thickBot="1">
+    <row r="18" spans="1:27" ht="90" thickBot="1">
       <c r="A18" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="7">
@@ -2344,20 +2365,18 @@
         <v>21</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>35</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="8"/>
@@ -2375,7 +2394,7 @@
       <c r="Z18" s="6"/>
       <c r="AA18" s="6"/>
     </row>
-    <row r="19" spans="1:27" ht="90" thickBot="1">
+    <row r="19" spans="1:27" ht="102.75" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>109</v>
       </c>
@@ -2392,15 +2411,21 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I19" s="6"/>
       <c r="J19" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
+      <c r="K19" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L19" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="6" t="s">
+        <v>279</v>
+      </c>
       <c r="N19" s="8"/>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -2416,38 +2441,32 @@
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
     </row>
-    <row r="20" spans="1:27" ht="102.75" thickBot="1">
+    <row r="20" spans="1:27" ht="39" thickBot="1">
       <c r="A20" s="6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="7">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="L20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>282</v>
-      </c>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
       <c r="N20" s="8"/>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -2463,13 +2482,13 @@
       <c r="Z20" s="6"/>
       <c r="AA20" s="6"/>
     </row>
-    <row r="21" spans="1:27" ht="39" thickBot="1">
+    <row r="21" spans="1:27" ht="51.75" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="7">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>21</v>
@@ -2480,7 +2499,7 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6" t="s">
@@ -2504,13 +2523,13 @@
       <c r="Z21" s="6"/>
       <c r="AA21" s="6"/>
     </row>
-    <row r="22" spans="1:27" ht="51.75" thickBot="1">
+    <row r="22" spans="1:27" ht="39" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="7">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>21</v>
@@ -2521,11 +2540,11 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
@@ -2547,26 +2566,26 @@
     </row>
     <row r="23" spans="1:27" ht="39" thickBot="1">
       <c r="A23" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="7">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -2586,32 +2605,36 @@
       <c r="Z23" s="6"/>
       <c r="AA23" s="6"/>
     </row>
-    <row r="24" spans="1:27" ht="39" thickBot="1">
+    <row r="24" spans="1:27" ht="51.75" thickBot="1">
       <c r="A24" s="6" t="s">
-        <v>124</v>
+        <v>49</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="7">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="K24" s="6"/>
+        <v>52</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>53</v>
+      </c>
       <c r="L24" s="6"/>
-      <c r="M24" s="6"/>
+      <c r="M24" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="N24" s="8"/>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -2627,36 +2650,30 @@
       <c r="Z24" s="6"/>
       <c r="AA24" s="6"/>
     </row>
-    <row r="25" spans="1:27" ht="51.75" thickBot="1">
+    <row r="25" spans="1:27" ht="26.25" thickBot="1">
       <c r="A25" s="6" t="s">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="7">
-        <v>43912</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>21</v>
-      </c>
+        <v>43913</v>
+      </c>
+      <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>56</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="K25" s="6"/>
       <c r="L25" s="6"/>
-      <c r="M25" s="6" t="s">
-        <v>57</v>
-      </c>
+      <c r="M25" s="6"/>
       <c r="N25" s="8"/>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -2681,13 +2698,13 @@
         <v>43913</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="9" t="s">
         <v>126</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6" t="s">
@@ -2711,7 +2728,7 @@
       <c r="Z26" s="6"/>
       <c r="AA26" s="6"/>
     </row>
-    <row r="27" spans="1:27" ht="26.25" thickBot="1">
+    <row r="27" spans="1:27" ht="39" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>128</v>
       </c>
@@ -2720,20 +2737,22 @@
         <v>43913</v>
       </c>
       <c r="D27" s="6"/>
-      <c r="E27" s="9" t="s">
-        <v>129</v>
-      </c>
+      <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="M27" s="6"/>
       <c r="N27" s="8"/>
       <c r="O27" s="6"/>
@@ -2750,31 +2769,35 @@
       <c r="Z27" s="6"/>
       <c r="AA27" s="6"/>
     </row>
-    <row r="28" spans="1:27" ht="39" thickBot="1">
+    <row r="28" spans="1:27" ht="51.75" thickBot="1">
       <c r="A28" s="6" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="7">
-        <v>43913</v>
-      </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+        <v>43912</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6" t="s">
         <v>35</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="L28" s="6" t="s">
         <v>35</v>
       </c>
+      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="8"/>
       <c r="O28" s="6"/>
@@ -2793,7 +2816,7 @@
     </row>
     <row r="29" spans="1:27" ht="51.75" thickBot="1">
       <c r="A29" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="7">
@@ -2803,21 +2826,21 @@
         <v>21</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="6" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -2838,7 +2861,7 @@
     </row>
     <row r="30" spans="1:27" ht="51.75" thickBot="1">
       <c r="A30" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="7">
@@ -2848,21 +2871,21 @@
         <v>21</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -2883,7 +2906,7 @@
     </row>
     <row r="31" spans="1:27" ht="51.75" thickBot="1">
       <c r="A31" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="7">
@@ -2893,21 +2916,21 @@
         <v>21</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K31" s="6" t="s">
         <v>35</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>70</v>
       </c>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -2945,11 +2968,11 @@
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="K32" s="6" t="s">
         <v>35</v>
@@ -2990,7 +3013,7 @@
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="6" t="s">
@@ -3035,7 +3058,7 @@
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6" t="s">
@@ -3076,11 +3099,11 @@
         <v>81</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6" t="s">
@@ -3106,33 +3129,35 @@
       <c r="Z35" s="6"/>
       <c r="AA35" s="6"/>
     </row>
-    <row r="36" spans="1:27" ht="51.75" thickBot="1">
+    <row r="36" spans="1:27" ht="65.25" thickBot="1">
       <c r="A36" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="7">
         <v>43912</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="10" t="s">
         <v>84</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G36" s="6"/>
+        <v>85</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="H36" s="6" t="s">
-        <v>61</v>
+        <v>256</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -3151,36 +3176,18 @@
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
     </row>
-    <row r="37" spans="1:27" ht="65.25" thickBot="1">
-      <c r="A37" s="6" t="s">
-        <v>85</v>
-      </c>
+    <row r="37" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A37" s="6"/>
       <c r="B37" s="6"/>
-      <c r="C37" s="7">
-        <v>43912</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>259</v>
-      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
       <c r="I37" s="6"/>
-      <c r="J37" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>90</v>
-      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="8"/>
@@ -3256,20 +3263,38 @@
       <c r="Z39" s="6"/>
       <c r="AA39" s="6"/>
     </row>
-    <row r="40" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
+    <row r="40" spans="1:27" ht="128.25" thickBot="1">
+      <c r="A40" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C40" s="11">
+        <v>43913</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" s="8"/>
+      <c r="J40" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="M40" s="8"/>
       <c r="N40" s="8"/>
       <c r="O40" s="6"/>
       <c r="P40" s="6"/>
@@ -3285,37 +3310,31 @@
       <c r="Z40" s="6"/>
       <c r="AA40" s="6"/>
     </row>
-    <row r="41" spans="1:27" ht="128.25" thickBot="1">
+    <row r="41" spans="1:27" ht="115.5" thickBot="1">
       <c r="A41" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="11">
-        <v>43913</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="9" t="s">
+        <v>137</v>
       </c>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K41" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L41" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="L41" s="8"/>
       <c r="M41" s="8"/>
       <c r="N41" s="8"/>
       <c r="O41" s="6"/>
@@ -3334,24 +3353,24 @@
     </row>
     <row r="42" spans="1:27" ht="115.5" thickBot="1">
       <c r="A42" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="8"/>
       <c r="E42" s="9" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K42" s="8" t="s">
         <v>35</v>
@@ -3375,24 +3394,24 @@
     </row>
     <row r="43" spans="1:27" ht="115.5" thickBot="1">
       <c r="A43" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="8"/>
       <c r="E43" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K43" s="8" t="s">
         <v>35</v>
@@ -3414,26 +3433,26 @@
       <c r="Z43" s="6"/>
       <c r="AA43" s="6"/>
     </row>
-    <row r="44" spans="1:27" ht="115.5" thickBot="1">
+    <row r="44" spans="1:27" ht="141" thickBot="1">
       <c r="A44" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="8"/>
-      <c r="E44" s="9" t="s">
-        <v>148</v>
+      <c r="E44" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K44" s="8" t="s">
         <v>35</v>
@@ -3457,24 +3476,26 @@
     </row>
     <row r="45" spans="1:27" ht="141" thickBot="1">
       <c r="A45" s="8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C45" s="8"/>
+        <v>152</v>
+      </c>
+      <c r="C45" s="11">
+        <v>43913</v>
+      </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K45" s="8" t="s">
         <v>35</v>
@@ -3496,32 +3517,18 @@
       <c r="Z45" s="6"/>
       <c r="AA45" s="6"/>
     </row>
-    <row r="46" spans="1:27" ht="141" thickBot="1">
-      <c r="A46" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="C46" s="11">
-        <v>43913</v>
-      </c>
+    <row r="46" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
       <c r="D46" s="8"/>
-      <c r="E46" s="8" t="s">
-        <v>156</v>
-      </c>
+      <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="6" t="s">
-        <v>136</v>
-      </c>
+      <c r="H46" s="8"/>
       <c r="I46" s="8"/>
-      <c r="J46" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="K46" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
       <c r="L46" s="8"/>
       <c r="M46" s="8"/>
       <c r="N46" s="8"/>
@@ -3597,20 +3604,38 @@
       <c r="Z48" s="6"/>
       <c r="AA48" s="6"/>
     </row>
-    <row r="49" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A49" s="8"/>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
+    <row r="49" spans="1:27" ht="332.25" thickBot="1">
+      <c r="A49" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>157</v>
+      </c>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
+      <c r="H49" s="8" t="s">
+        <v>158</v>
+      </c>
       <c r="I49" s="8"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="8"/>
+      <c r="J49" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>160</v>
+      </c>
       <c r="L49" s="8"/>
-      <c r="M49" s="8"/>
+      <c r="M49" s="8" t="s">
+        <v>161</v>
+      </c>
       <c r="N49" s="8"/>
       <c r="O49" s="6"/>
       <c r="P49" s="6"/>
@@ -3626,37 +3651,39 @@
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
     </row>
-    <row r="50" spans="1:27" ht="332.25" thickBot="1">
+    <row r="50" spans="1:27" ht="281.25" thickBot="1">
       <c r="A50" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
+      </c>
+      <c r="C50" s="11">
+        <v>43913</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E50" s="8" t="s">
-        <v>160</v>
+      <c r="E50" s="9" t="s">
+        <v>164</v>
       </c>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L50" s="8"/>
+        <v>160</v>
+      </c>
+      <c r="L50" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="M50" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="6"/>
@@ -3673,40 +3700,20 @@
       <c r="Z50" s="6"/>
       <c r="AA50" s="6"/>
     </row>
-    <row r="51" spans="1:27" ht="281.25" thickBot="1">
-      <c r="A51" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C51" s="11">
-        <v>43913</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>167</v>
-      </c>
+    <row r="51" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="8" t="s">
-        <v>161</v>
-      </c>
+      <c r="H51" s="8"/>
       <c r="I51" s="8"/>
-      <c r="J51" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K51" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="L51" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="M51" s="8" t="s">
-        <v>168</v>
-      </c>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
       <c r="N51" s="8"/>
       <c r="O51" s="6"/>
       <c r="P51" s="6"/>
@@ -3751,19 +3758,37 @@
       <c r="Z52" s="6"/>
       <c r="AA52" s="6"/>
     </row>
-    <row r="53" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A53" s="8"/>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
+    <row r="53" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A53" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="11">
+        <v>43913</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>168</v>
+      </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
+      <c r="H53" s="8" t="s">
+        <v>257</v>
+      </c>
       <c r="I53" s="8"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="8"/>
-      <c r="L53" s="8"/>
+      <c r="J53" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L53" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="M53" s="8"/>
       <c r="N53" s="8"/>
       <c r="O53" s="6"/>
@@ -3780,12 +3805,12 @@
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
     </row>
-    <row r="54" spans="1:27" ht="64.5" thickBot="1">
+    <row r="54" spans="1:27" ht="51.75" thickBot="1">
       <c r="A54" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C54" s="11">
         <v>43913</v>
@@ -3793,24 +3818,22 @@
       <c r="D54" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="8" t="s">
-        <v>171</v>
+      <c r="E54" s="9" t="s">
+        <v>173</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="8" t="s">
-        <v>260</v>
+      <c r="H54" s="12" t="s">
+        <v>169</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L54" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="L54" s="8"/>
       <c r="M54" s="8"/>
       <c r="N54" s="8"/>
       <c r="O54" s="6"/>
@@ -3827,34 +3850,18 @@
       <c r="Z54" s="6"/>
       <c r="AA54" s="6"/>
     </row>
-    <row r="55" spans="1:27" ht="51.75" thickBot="1">
-      <c r="A55" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C55" s="11">
-        <v>43913</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>176</v>
-      </c>
+    <row r="55" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="12" t="s">
-        <v>172</v>
-      </c>
+      <c r="H55" s="8"/>
       <c r="I55" s="8"/>
-      <c r="J55" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="K55" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
       <c r="N55" s="8"/>
@@ -3901,17 +3908,33 @@
       <c r="Z56" s="6"/>
       <c r="AA56" s="6"/>
     </row>
-    <row r="57" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A57" s="8"/>
-      <c r="B57" s="8"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
+    <row r="57" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A57" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="C57" s="11">
+        <v>43913</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>177</v>
+      </c>
       <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
+      <c r="H57" s="8" t="s">
+        <v>178</v>
+      </c>
       <c r="I57" s="8"/>
-      <c r="J57" s="8"/>
+      <c r="J57" s="8" t="s">
+        <v>179</v>
+      </c>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
       <c r="M57" s="8"/>
@@ -3932,10 +3955,10 @@
     </row>
     <row r="58" spans="1:27" ht="64.5" thickBot="1">
       <c r="A58" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C58" s="11">
         <v>43913</v>
@@ -3943,15 +3966,15 @@
       <c r="D58" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E58" s="8" t="s">
-        <v>261</v>
+      <c r="E58" s="9" t="s">
+        <v>259</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8" t="s">
@@ -3989,21 +4012,25 @@
         <v>21</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="8"/>
+        <v>182</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="M59" s="8"/>
       <c r="N59" s="8"/>
       <c r="O59" s="6"/>
@@ -4022,10 +4049,10 @@
     </row>
     <row r="60" spans="1:27" ht="64.5" thickBot="1">
       <c r="A60" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B60" s="8" t="s">
         <v>186</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="C60" s="11">
         <v>43913</v>
@@ -4034,25 +4061,23 @@
         <v>21</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L60" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="L60" s="8"/>
       <c r="M60" s="8"/>
       <c r="N60" s="8"/>
       <c r="O60" s="6"/>
@@ -4071,10 +4096,10 @@
     </row>
     <row r="61" spans="1:27" ht="64.5" thickBot="1">
       <c r="A61" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>189</v>
       </c>
       <c r="C61" s="11">
         <v>43913</v>
@@ -4083,22 +4108,20 @@
         <v>21</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="K61" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
       <c r="N61" s="8"/>
@@ -4118,10 +4141,10 @@
     </row>
     <row r="62" spans="1:27" ht="64.5" thickBot="1">
       <c r="A62" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B62" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="C62" s="11">
         <v>43913</v>
@@ -4130,20 +4153,22 @@
         <v>21</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="K62" s="8"/>
+        <v>182</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="L62" s="8"/>
       <c r="M62" s="8"/>
       <c r="N62" s="8"/>
@@ -4163,10 +4188,10 @@
     </row>
     <row r="63" spans="1:27" ht="64.5" thickBot="1">
       <c r="A63" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>193</v>
       </c>
       <c r="C63" s="11">
         <v>43913</v>
@@ -4175,18 +4200,18 @@
         <v>21</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>35</v>
@@ -4210,10 +4235,10 @@
     </row>
     <row r="64" spans="1:27" ht="64.5" thickBot="1">
       <c r="A64" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="8" t="s">
         <v>194</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>195</v>
       </c>
       <c r="C64" s="11">
         <v>43913</v>
@@ -4222,22 +4247,20 @@
         <v>21</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="K64" s="8" t="s">
-        <v>35</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="K64" s="8"/>
       <c r="L64" s="8"/>
       <c r="M64" s="8"/>
       <c r="N64" s="8"/>
@@ -4255,33 +4278,17 @@
       <c r="Z64" s="6"/>
       <c r="AA64" s="6"/>
     </row>
-    <row r="65" spans="1:27" ht="64.5" thickBot="1">
-      <c r="A65" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B65" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" s="11">
-        <v>43913</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>180</v>
-      </c>
+    <row r="65" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="8" t="s">
-        <v>181</v>
-      </c>
+      <c r="H65" s="8"/>
       <c r="I65" s="8"/>
-      <c r="J65" s="8" t="s">
-        <v>198</v>
-      </c>
+      <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="8"/>
       <c r="M65" s="8"/>
@@ -4329,19 +4336,39 @@
       <c r="Z66" s="6"/>
       <c r="AA66" s="6"/>
     </row>
-    <row r="67" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A67" s="8"/>
-      <c r="B67" s="8"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
+    <row r="67" spans="1:27" ht="26.25" thickBot="1">
+      <c r="A67" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>199</v>
+      </c>
       <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
+      <c r="H67" s="13" t="s">
+        <v>200</v>
+      </c>
       <c r="I67" s="8"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="8"/>
-      <c r="L67" s="8"/>
+      <c r="J67" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
       <c r="O67" s="6"/>
@@ -4358,39 +4385,19 @@
       <c r="Z67" s="6"/>
       <c r="AA67" s="6"/>
     </row>
-    <row r="68" spans="1:27" ht="26.25" thickBot="1">
-      <c r="A68" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B68" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C68" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>202</v>
-      </c>
+    <row r="68" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="13" t="s">
-        <v>203</v>
-      </c>
+      <c r="H68" s="8"/>
       <c r="I68" s="8"/>
-      <c r="J68" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="K68" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L68" s="8" t="s">
-        <v>284</v>
-      </c>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
       <c r="M68" s="8"/>
       <c r="N68" s="8"/>
       <c r="O68" s="6"/>
@@ -4407,19 +4414,37 @@
       <c r="Z68" s="6"/>
       <c r="AA68" s="6"/>
     </row>
-    <row r="69" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A69" s="8"/>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
+    <row r="69" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A69" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>267</v>
+      </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
+      <c r="H69" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
+      <c r="J69" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
       <c r="O69" s="6"/>
@@ -4444,29 +4469,27 @@
         <v>206</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E70" s="8" t="s">
-        <v>270</v>
+      <c r="E70" s="14" t="s">
+        <v>268</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L70" s="8" t="s">
-        <v>284</v>
-      </c>
+      <c r="L70" s="8"/>
       <c r="M70" s="8"/>
       <c r="N70" s="8"/>
       <c r="O70" s="6"/>
@@ -4483,34 +4506,18 @@
       <c r="Z70" s="6"/>
       <c r="AA70" s="6"/>
     </row>
-    <row r="71" spans="1:27" ht="64.5" thickBot="1">
-      <c r="A71" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>271</v>
-      </c>
+    <row r="71" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="6" t="s">
-        <v>136</v>
-      </c>
+      <c r="H71" s="8"/>
       <c r="I71" s="8"/>
-      <c r="J71" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="K71" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
       <c r="L71" s="8"/>
       <c r="M71" s="8"/>
       <c r="N71" s="8"/>
@@ -4557,19 +4564,37 @@
       <c r="Z72" s="6"/>
       <c r="AA72" s="6"/>
     </row>
-    <row r="73" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A73" s="8"/>
-      <c r="B73" s="8"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+    <row r="73" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A73" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>269</v>
+      </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
+      <c r="H73" s="8" t="s">
+        <v>211</v>
+      </c>
       <c r="I73" s="8"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="8"/>
-      <c r="L73" s="8"/>
+      <c r="J73" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
       <c r="O73" s="6"/>
@@ -4586,37 +4611,19 @@
       <c r="Z73" s="6"/>
       <c r="AA73" s="6"/>
     </row>
-    <row r="74" spans="1:27" ht="51.75" thickBot="1">
-      <c r="A74" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="8" t="s">
-        <v>272</v>
-      </c>
+    <row r="74" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="8" t="s">
-        <v>214</v>
-      </c>
+      <c r="H74" s="8"/>
       <c r="I74" s="8"/>
-      <c r="J74" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="K74" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="L74" s="8" t="s">
-        <v>284</v>
-      </c>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
       <c r="M74" s="8"/>
       <c r="N74" s="8"/>
       <c r="O74" s="6"/>
@@ -4662,19 +4669,37 @@
       <c r="Z75" s="6"/>
       <c r="AA75" s="6"/>
     </row>
-    <row r="76" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
+    <row r="76" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A76" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>270</v>
+      </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
+      <c r="H76" s="8" t="s">
+        <v>215</v>
+      </c>
       <c r="I76" s="8"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="8"/>
+      <c r="J76" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
       <c r="O76" s="6"/>
@@ -4691,37 +4716,35 @@
       <c r="Z76" s="6"/>
       <c r="AA76" s="6"/>
     </row>
-    <row r="77" spans="1:27" ht="51.75" thickBot="1">
+    <row r="77" spans="1:27" ht="64.5" thickBot="1">
       <c r="A77" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8" t="s">
-        <v>219</v>
+        <v>272</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="L77" s="8" t="s">
-        <v>285</v>
-      </c>
+      <c r="L77" s="8"/>
       <c r="M77" s="8"/>
       <c r="N77" s="8"/>
       <c r="O77" s="6"/>
@@ -4738,7 +4761,7 @@
       <c r="Z77" s="6"/>
       <c r="AA77" s="6"/>
     </row>
-    <row r="78" spans="1:27" ht="64.5" thickBot="1">
+    <row r="78" spans="1:27" ht="39" thickBot="1">
       <c r="A78" s="8" t="s">
         <v>220</v>
       </c>
@@ -4746,22 +4769,22 @@
         <v>221</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>35</v>
@@ -4783,30 +4806,30 @@
       <c r="Z78" s="6"/>
       <c r="AA78" s="6"/>
     </row>
-    <row r="79" spans="1:27" ht="39" thickBot="1">
+    <row r="79" spans="1:27" ht="51.75" thickBot="1">
       <c r="A79" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B79" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>224</v>
-      </c>
       <c r="C79" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>35</v>
@@ -4828,30 +4851,30 @@
       <c r="Z79" s="6"/>
       <c r="AA79" s="6"/>
     </row>
-    <row r="80" spans="1:27" ht="51.75" thickBot="1">
+    <row r="80" spans="1:27" ht="39" thickBot="1">
       <c r="A80" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B80" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>226</v>
-      </c>
       <c r="C80" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>35</v>
@@ -4873,31 +4896,29 @@
       <c r="Z80" s="6"/>
       <c r="AA80" s="6"/>
     </row>
-    <row r="81" spans="1:27" ht="39" thickBot="1">
+    <row r="81" spans="1:27" ht="26.25" thickBot="1">
       <c r="A81" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>228</v>
-      </c>
       <c r="C81" s="8" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="I81" s="8"/>
-      <c r="J81" s="8" t="s">
-        <v>277</v>
-      </c>
+      <c r="J81" s="8"/>
       <c r="K81" s="8" t="s">
         <v>35</v>
       </c>
@@ -4918,32 +4939,18 @@
       <c r="Z81" s="6"/>
       <c r="AA81" s="6"/>
     </row>
-    <row r="82" spans="1:27" ht="26.25" thickBot="1">
-      <c r="A82" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>280</v>
-      </c>
+    <row r="82" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="8" t="s">
-        <v>218</v>
-      </c>
+      <c r="H82" s="8"/>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
-      <c r="K82" s="8" t="s">
-        <v>35</v>
-      </c>
+      <c r="K82" s="8"/>
       <c r="L82" s="8"/>
       <c r="M82" s="8"/>
       <c r="N82" s="8"/>
@@ -4990,18 +4997,34 @@
       <c r="Z83" s="6"/>
       <c r="AA83" s="6"/>
     </row>
-    <row r="84" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
+    <row r="84" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A84" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>230</v>
+      </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
+      <c r="H84" s="8" t="s">
+        <v>231</v>
+      </c>
       <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
+      <c r="J84" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>278</v>
+      </c>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
       <c r="N84" s="8"/>
@@ -5021,31 +5044,31 @@
     </row>
     <row r="85" spans="1:27" ht="51.75" thickBot="1">
       <c r="A85" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
@@ -5066,31 +5089,31 @@
     </row>
     <row r="86" spans="1:27" ht="51.75" thickBot="1">
       <c r="A86" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="B86" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="B86" s="8" t="s">
-        <v>237</v>
-      </c>
       <c r="C86" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
@@ -5111,31 +5134,31 @@
     </row>
     <row r="87" spans="1:27" ht="51.75" thickBot="1">
       <c r="A87" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="B87" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>239</v>
-      </c>
       <c r="C87" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
@@ -5154,34 +5177,18 @@
       <c r="Z87" s="6"/>
       <c r="AA87" s="6"/>
     </row>
-    <row r="88" spans="1:27" ht="51.75" thickBot="1">
-      <c r="A88" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D88" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>256</v>
-      </c>
+    <row r="88" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="8" t="s">
-        <v>234</v>
-      </c>
+      <c r="H88" s="8"/>
       <c r="I88" s="8"/>
-      <c r="J88" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="K88" s="8" t="s">
-        <v>281</v>
-      </c>
+      <c r="J88" s="8"/>
+      <c r="K88" s="8"/>
       <c r="L88" s="8"/>
       <c r="M88" s="8"/>
       <c r="N88" s="8"/>
@@ -5228,19 +5235,33 @@
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
     </row>
-    <row r="90" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
+    <row r="90" spans="1:27" ht="39" thickBot="1">
+      <c r="A90" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
+      <c r="F90" s="8" t="s">
+        <v>241</v>
+      </c>
       <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
+      <c r="H90" s="8" t="s">
+        <v>242</v>
+      </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
+      <c r="L90" s="8" t="s">
+        <v>282</v>
+      </c>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
       <c r="O90" s="6"/>
@@ -5262,10 +5283,10 @@
         <v>243</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>21</v>
@@ -5274,16 +5295,16 @@
       <c r="F91" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G91" s="8"/>
+      <c r="G91" s="8" t="s">
+        <v>245</v>
+      </c>
       <c r="H91" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
-      <c r="L91" s="8" t="s">
-        <v>285</v>
-      </c>
+      <c r="L91" s="8"/>
       <c r="M91" s="8"/>
       <c r="N91" s="8"/>
       <c r="O91" s="6"/>
@@ -5305,10 +5326,10 @@
         <v>246</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>21</v>
@@ -5321,7 +5342,7 @@
         <v>248</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
@@ -5348,23 +5369,23 @@
         <v>249</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="G93" s="8" t="s">
-        <v>251</v>
-      </c>
       <c r="H93" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
@@ -5386,29 +5407,15 @@
       <c r="Z93" s="6"/>
       <c r="AA93" s="6"/>
     </row>
-    <row r="94" spans="1:27" ht="39" thickBot="1">
-      <c r="A94" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="B94" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>21</v>
-      </c>
+    <row r="94" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
       <c r="E94" s="8"/>
-      <c r="F94" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="H94" s="8" t="s">
-        <v>245</v>
-      </c>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
@@ -5458,19 +5465,33 @@
       <c r="Z95" s="6"/>
       <c r="AA95" s="6"/>
     </row>
-    <row r="96" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A96" s="8"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
+    <row r="96" spans="1:27" ht="51.75" thickBot="1">
+      <c r="A96" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D96" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
+      <c r="F96" s="8" t="s">
+        <v>287</v>
+      </c>
       <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
+      <c r="H96" s="8" t="s">
+        <v>288</v>
+      </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
-      <c r="L96" s="8"/>
+      <c r="L96" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
       <c r="O96" s="6"/>
@@ -5489,30 +5510,30 @@
     </row>
     <row r="97" spans="1:27" ht="51.75" thickBot="1">
       <c r="A97" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
@@ -5532,13 +5553,13 @@
     </row>
     <row r="98" spans="1:27" ht="51.75" thickBot="1">
       <c r="A98" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>21</v>
@@ -5555,7 +5576,7 @@
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
@@ -5578,28 +5599,26 @@
         <v>297</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
-      <c r="L99" s="8" t="s">
-        <v>284</v>
-      </c>
+      <c r="L99" s="8"/>
       <c r="M99" s="8"/>
       <c r="N99" s="8"/>
       <c r="O99" s="6"/>
@@ -5618,13 +5637,13 @@
     </row>
     <row r="100" spans="1:27" ht="51.75" thickBot="1">
       <c r="A100" s="8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>21</v>
@@ -5635,7 +5654,7 @@
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
@@ -5657,26 +5676,28 @@
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
     </row>
-    <row r="101" spans="1:27" ht="51.75" thickBot="1">
+    <row r="101" spans="1:27" ht="77.25" thickBot="1">
       <c r="A101" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>301</v>
-      </c>
       <c r="C101" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E101" s="8"/>
+      <c r="E101" s="8" t="s">
+        <v>339</v>
+      </c>
       <c r="F101" s="8" t="s">
         <v>305</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -5700,24 +5721,26 @@
     </row>
     <row r="102" spans="1:27" ht="77.25" thickBot="1">
       <c r="A102" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E102" s="8"/>
+      <c r="E102" s="8" t="s">
+        <v>340</v>
+      </c>
       <c r="F102" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
@@ -5739,7 +5762,7 @@
       <c r="Z102" s="6"/>
       <c r="AA102" s="6"/>
     </row>
-    <row r="103" spans="1:27" ht="77.25" thickBot="1">
+    <row r="103" spans="1:27" ht="51.75" thickBot="1">
       <c r="A103" s="8" t="s">
         <v>310</v>
       </c>
@@ -5747,18 +5770,20 @@
         <v>311</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E103" s="8"/>
+      <c r="E103" s="8" t="s">
+        <v>341</v>
+      </c>
       <c r="F103" s="8" t="s">
         <v>312</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
@@ -5788,18 +5813,20 @@
         <v>314</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E104" s="8"/>
+      <c r="E104" s="8" t="s">
+        <v>342</v>
+      </c>
       <c r="F104" s="8" t="s">
         <v>315</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
@@ -5821,7 +5848,7 @@
       <c r="Z104" s="6"/>
       <c r="AA104" s="6"/>
     </row>
-    <row r="105" spans="1:27" ht="51.75" thickBot="1">
+    <row r="105" spans="1:27" ht="64.5" thickBot="1">
       <c r="A105" s="8" t="s">
         <v>316</v>
       </c>
@@ -5829,18 +5856,20 @@
         <v>317</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E105" s="8"/>
+      <c r="E105" s="8" t="s">
+        <v>343</v>
+      </c>
       <c r="F105" s="8" t="s">
         <v>318</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
@@ -5870,18 +5899,20 @@
         <v>320</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E106" s="8"/>
+      <c r="E106" s="8" t="s">
+        <v>344</v>
+      </c>
       <c r="F106" s="8" t="s">
         <v>321</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
@@ -5903,7 +5934,7 @@
       <c r="Z106" s="6"/>
       <c r="AA106" s="6"/>
     </row>
-    <row r="107" spans="1:27" ht="64.5" thickBot="1">
+    <row r="107" spans="1:27" ht="51.75" thickBot="1">
       <c r="A107" s="8" t="s">
         <v>322</v>
       </c>
@@ -5911,18 +5942,20 @@
         <v>323</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E107" s="8"/>
+      <c r="E107" s="8" t="s">
+        <v>345</v>
+      </c>
       <c r="F107" s="8" t="s">
         <v>324</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
@@ -5949,21 +5982,23 @@
         <v>325</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E108" s="8"/>
+      <c r="E108" s="8" t="s">
+        <v>346</v>
+      </c>
       <c r="F108" s="8" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
@@ -5987,24 +6022,26 @@
     </row>
     <row r="109" spans="1:27" ht="51.75" thickBot="1">
       <c r="A109" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>326</v>
-      </c>
       <c r="C109" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E109" s="8"/>
+      <c r="E109" s="8" t="s">
+        <v>347</v>
+      </c>
       <c r="F109" s="8" t="s">
         <v>329</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
@@ -6031,21 +6068,23 @@
         <v>330</v>
       </c>
       <c r="B110" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>331</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>289</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E110" s="8"/>
+      <c r="E110" s="8" t="s">
+        <v>348</v>
+      </c>
       <c r="F110" s="8" t="s">
         <v>332</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
@@ -6072,21 +6111,23 @@
         <v>333</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>334</v>
+        <v>286</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E111" s="8"/>
+      <c r="E111" s="8" t="s">
+        <v>349</v>
+      </c>
       <c r="F111" s="8" t="s">
         <v>335</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
@@ -6116,23 +6157,27 @@
         <v>337</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E112" s="8"/>
+      <c r="E112" s="8" t="s">
+        <v>350</v>
+      </c>
       <c r="F112" s="8" t="s">
         <v>338</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
-      <c r="L112" s="8"/>
+      <c r="L112" s="8" t="s">
+        <v>281</v>
+      </c>
       <c r="M112" s="8"/>
       <c r="N112" s="8"/>
       <c r="O112" s="6"/>
@@ -6149,33 +6194,19 @@
       <c r="Z112" s="6"/>
       <c r="AA112" s="6"/>
     </row>
-    <row r="113" spans="1:27" ht="51.75" thickBot="1">
-      <c r="A113" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>21</v>
-      </c>
+    <row r="113" spans="1:27" ht="16.5" thickBot="1">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
       <c r="E113" s="8"/>
-      <c r="F113" s="8" t="s">
-        <v>341</v>
-      </c>
+      <c r="F113" s="8"/>
       <c r="G113" s="8"/>
-      <c r="H113" s="8" t="s">
-        <v>309</v>
-      </c>
+      <c r="H113" s="8"/>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
-      <c r="L113" s="8" t="s">
-        <v>284</v>
-      </c>
+      <c r="L113" s="8"/>
       <c r="M113" s="8"/>
       <c r="N113" s="8"/>
       <c r="O113" s="6"/>
@@ -32671,7 +32702,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E37" r:id="rId1"/>
+    <hyperlink ref="E36" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>

--- a/Results/np_swab_results.xlsx
+++ b/Results/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="366">
   <si>
     <t>Date of test</t>
   </si>
@@ -751,9 +751,6 @@
     <t>PCA 2000. 10 minutes. 100%</t>
   </si>
   <si>
-    <t>Enviriontec. Al Siblani</t>
-  </si>
-  <si>
     <t>EV_2</t>
   </si>
   <si>
@@ -1077,6 +1074,54 @@
   </si>
   <si>
     <t>img/Wyss/W_2_12</t>
+  </si>
+  <si>
+    <t>EnvisionTEC. Al Siblani. asiblani@envisiontec.com</t>
+  </si>
+  <si>
+    <t>Did not pass (body design is appropriate, but tip/neck is too flexible and seems would not easily pass beyond external nares, seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>Pass (body design is appropriate, the tip end material seems very absorbent which we like, but the tip would ideally be more flexible, tip seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>Did not pass (tip sharp and inflexible but body design is appropriate, tip seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>Pass (tip is flexible and body design is appropriate)</t>
+  </si>
+  <si>
+    <t>Did not do cheek swab, uncured glue</t>
+  </si>
+  <si>
+    <t>Pass (tip is flexible and body design is appropriate, tip seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>Did not pass (tip is sharp and inflexible but body design is appropriate, tip seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>Pass (tip would ideally be more flexible but body design is appropriate, tip seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>Pass (tip ideally would be more flexible, but design is appopriate, tip seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>Pass (tip is more flexible which we like but body design is appropriate, tip seems non-uniform &amp; wasn't sure if there would be scale-up reproducibility issues)</t>
+  </si>
+  <si>
+    <t>Did not pass (too sharp and tip too inflexible)</t>
+  </si>
+  <si>
+    <t>Did not pass (tip/neck are too flexible we feel like it would get caught in the external nares and not pass deeper well)</t>
+  </si>
+  <si>
+    <t>EV_2_1</t>
+  </si>
+  <si>
+    <t>3cm rods (for material testing)</t>
+  </si>
+  <si>
+    <t>C 29C</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1248,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1243,6 +1288,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1551,7 +1597,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1562,10 +1608,10 @@
   <dimension ref="A1:AA1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G71" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E98" sqref="E98"/>
+      <selection pane="bottomRight" sqref="A1:AA1025"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1586,7 +1632,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="51.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>90</v>
@@ -1976,7 +2022,7 @@
     </row>
     <row r="9" spans="1:27" ht="39" thickBot="1">
       <c r="A9" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
@@ -2424,7 +2470,7 @@
         <v>35</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="6"/>
@@ -2748,7 +2794,7 @@
         <v>35</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>35</v>
@@ -3150,7 +3196,7 @@
         <v>86</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
@@ -3777,7 +3823,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
@@ -3922,7 +3968,7 @@
         <v>21</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>177</v>
@@ -3967,7 +4013,7 @@
         <v>21</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F58" s="8" t="s">
         <v>177</v>
@@ -4012,7 +4058,7 @@
         <v>21</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>177</v>
@@ -4061,7 +4107,7 @@
         <v>21</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F60" s="8" t="s">
         <v>177</v>
@@ -4108,7 +4154,7 @@
         <v>21</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F61" s="8" t="s">
         <v>177</v>
@@ -4153,7 +4199,7 @@
         <v>21</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>177</v>
@@ -4200,7 +4246,7 @@
         <v>21</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F63" s="8" t="s">
         <v>177</v>
@@ -4247,7 +4293,7 @@
         <v>21</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F64" s="8" t="s">
         <v>177</v>
@@ -4350,7 +4396,7 @@
         <v>21</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F67" s="8" t="s">
         <v>199</v>
@@ -4367,7 +4413,7 @@
         <v>35</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
@@ -4428,7 +4474,7 @@
         <v>21</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -4443,7 +4489,7 @@
         <v>35</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
@@ -4475,7 +4521,7 @@
         <v>21</v>
       </c>
       <c r="E70" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -4578,7 +4624,7 @@
         <v>21</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
@@ -4593,7 +4639,7 @@
         <v>35</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -4683,7 +4729,7 @@
         <v>21</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -4698,7 +4744,7 @@
         <v>35</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
@@ -4730,7 +4776,7 @@
         <v>21</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
@@ -4739,7 +4785,7 @@
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>35</v>
@@ -4775,7 +4821,7 @@
         <v>21</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
@@ -4784,7 +4830,7 @@
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>35</v>
@@ -4820,7 +4866,7 @@
         <v>21</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
@@ -4829,7 +4875,7 @@
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>35</v>
@@ -4865,7 +4911,7 @@
         <v>21</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
@@ -4874,7 +4920,7 @@
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>35</v>
@@ -4910,7 +4956,7 @@
         <v>21</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
@@ -5023,7 +5069,7 @@
         <v>232</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
@@ -5056,7 +5102,7 @@
         <v>21</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
@@ -5068,7 +5114,7 @@
         <v>232</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
@@ -5101,7 +5147,7 @@
         <v>21</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
@@ -5113,7 +5159,7 @@
         <v>232</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
@@ -5146,7 +5192,7 @@
         <v>21</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
@@ -5158,7 +5204,7 @@
         <v>239</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
@@ -5235,12 +5281,12 @@
       <c r="Z89" s="6"/>
       <c r="AA89" s="6"/>
     </row>
-    <row r="90" spans="1:27" ht="39" thickBot="1">
+    <row r="90" spans="1:27" ht="51.75" thickBot="1">
       <c r="A90" s="8" t="s">
         <v>240</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>198</v>
@@ -5254,13 +5300,13 @@
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8" t="s">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
@@ -5278,12 +5324,12 @@
       <c r="Z90" s="6"/>
       <c r="AA90" s="6"/>
     </row>
-    <row r="91" spans="1:27" ht="39" thickBot="1">
+    <row r="91" spans="1:27" ht="51.75" thickBot="1">
       <c r="A91" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>198</v>
@@ -5293,13 +5339,13 @@
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="G91" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="G91" s="8" t="s">
-        <v>245</v>
-      </c>
       <c r="H91" s="8" t="s">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
@@ -5321,12 +5367,12 @@
       <c r="Z91" s="6"/>
       <c r="AA91" s="6"/>
     </row>
-    <row r="92" spans="1:27" ht="39" thickBot="1">
+    <row r="92" spans="1:27" ht="51.75" thickBot="1">
       <c r="A92" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>198</v>
@@ -5336,13 +5382,13 @@
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G92" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G92" s="8" t="s">
-        <v>248</v>
-      </c>
       <c r="H92" s="8" t="s">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
@@ -5364,12 +5410,12 @@
       <c r="Z92" s="6"/>
       <c r="AA92" s="6"/>
     </row>
-    <row r="93" spans="1:27" ht="39" thickBot="1">
+    <row r="93" spans="1:27" ht="51.75" thickBot="1">
       <c r="A93" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>198</v>
@@ -5379,13 +5425,13 @@
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>242</v>
+        <v>350</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
@@ -5467,30 +5513,30 @@
     </row>
     <row r="96" spans="1:27" ht="51.75" thickBot="1">
       <c r="A96" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B96" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B96" s="8" t="s">
+      <c r="C96" s="8" t="s">
         <v>285</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>286</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
@@ -5510,30 +5556,30 @@
     </row>
     <row r="97" spans="1:27" ht="51.75" thickBot="1">
       <c r="A97" s="8" t="s">
+        <v>288</v>
+      </c>
+      <c r="B97" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="C97" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
@@ -5553,30 +5599,30 @@
     </row>
     <row r="98" spans="1:27" ht="51.75" thickBot="1">
       <c r="A98" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
@@ -5596,24 +5642,24 @@
     </row>
     <row r="99" spans="1:27" ht="51.75" thickBot="1">
       <c r="A99" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B99" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>298</v>
-      </c>
       <c r="C99" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
@@ -5637,24 +5683,24 @@
     </row>
     <row r="100" spans="1:27" ht="51.75" thickBot="1">
       <c r="A100" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
@@ -5676,32 +5722,36 @@
       <c r="Z100" s="6"/>
       <c r="AA100" s="6"/>
     </row>
-    <row r="101" spans="1:27" ht="77.25" thickBot="1">
+    <row r="101" spans="1:27" ht="115.5" thickBot="1">
       <c r="A101" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B101" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>304</v>
-      </c>
       <c r="C101" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I101" s="8"/>
-      <c r="J101" s="8"/>
-      <c r="K101" s="8"/>
+      <c r="J101" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="K101" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="L101" s="8"/>
       <c r="M101" s="8"/>
       <c r="N101" s="8"/>
@@ -5719,32 +5769,36 @@
       <c r="Z101" s="6"/>
       <c r="AA101" s="6"/>
     </row>
-    <row r="102" spans="1:27" ht="77.25" thickBot="1">
+    <row r="102" spans="1:27" ht="115.5" thickBot="1">
       <c r="A102" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B102" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="B102" s="8" t="s">
-        <v>308</v>
-      </c>
       <c r="C102" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
+      <c r="J102" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="K102" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="L102" s="8"/>
       <c r="M102" s="8"/>
       <c r="N102" s="8"/>
@@ -5762,32 +5816,36 @@
       <c r="Z102" s="6"/>
       <c r="AA102" s="6"/>
     </row>
-    <row r="103" spans="1:27" ht="51.75" thickBot="1">
+    <row r="103" spans="1:27" ht="77.25" thickBot="1">
       <c r="A103" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B103" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>311</v>
-      </c>
       <c r="C103" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I103" s="8"/>
-      <c r="J103" s="8"/>
-      <c r="K103" s="8"/>
+      <c r="J103" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="K103" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="L103" s="8"/>
       <c r="M103" s="8"/>
       <c r="N103" s="8"/>
@@ -5807,30 +5865,34 @@
     </row>
     <row r="104" spans="1:27" ht="51.75" thickBot="1">
       <c r="A104" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="B104" s="8" t="s">
         <v>313</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>314</v>
-      </c>
       <c r="C104" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I104" s="8"/>
-      <c r="J104" s="8"/>
-      <c r="K104" s="8"/>
+      <c r="J104" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="K104" s="8" t="s">
+        <v>355</v>
+      </c>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
       <c r="N104" s="8"/>
@@ -5848,32 +5910,36 @@
       <c r="Z104" s="6"/>
       <c r="AA104" s="6"/>
     </row>
-    <row r="105" spans="1:27" ht="64.5" thickBot="1">
+    <row r="105" spans="1:27" ht="77.25" thickBot="1">
       <c r="A105" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B105" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>317</v>
-      </c>
       <c r="C105" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I105" s="8"/>
-      <c r="J105" s="8"/>
-      <c r="K105" s="8"/>
+      <c r="J105" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="K105" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="L105" s="8"/>
       <c r="M105" s="8"/>
       <c r="N105" s="8"/>
@@ -5891,32 +5957,36 @@
       <c r="Z105" s="6"/>
       <c r="AA105" s="6"/>
     </row>
-    <row r="106" spans="1:27" ht="64.5" thickBot="1">
+    <row r="106" spans="1:27" ht="90" thickBot="1">
       <c r="A106" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B106" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>320</v>
-      </c>
       <c r="C106" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I106" s="8"/>
-      <c r="J106" s="8"/>
-      <c r="K106" s="8"/>
+      <c r="J106" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="K106" s="8" t="s">
+        <v>355</v>
+      </c>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
       <c r="N106" s="8"/>
@@ -5934,32 +6004,36 @@
       <c r="Z106" s="6"/>
       <c r="AA106" s="6"/>
     </row>
-    <row r="107" spans="1:27" ht="51.75" thickBot="1">
+    <row r="107" spans="1:27" ht="90" thickBot="1">
       <c r="A107" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="B107" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>323</v>
-      </c>
       <c r="C107" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I107" s="8"/>
-      <c r="J107" s="8"/>
-      <c r="K107" s="8"/>
+      <c r="J107" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="K107" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="L107" s="8"/>
       <c r="M107" s="8"/>
       <c r="N107" s="8"/>
@@ -5977,32 +6051,36 @@
       <c r="Z107" s="6"/>
       <c r="AA107" s="6"/>
     </row>
-    <row r="108" spans="1:27" ht="51.75" thickBot="1">
+    <row r="108" spans="1:27" ht="77.25" thickBot="1">
       <c r="A108" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I108" s="8"/>
-      <c r="J108" s="8"/>
-      <c r="K108" s="8"/>
+      <c r="J108" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="K108" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="L108" s="8"/>
       <c r="M108" s="8"/>
       <c r="N108" s="8"/>
@@ -6020,32 +6098,36 @@
       <c r="Z108" s="6"/>
       <c r="AA108" s="6"/>
     </row>
-    <row r="109" spans="1:27" ht="51.75" thickBot="1">
+    <row r="109" spans="1:27" ht="77.25" thickBot="1">
       <c r="A109" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B109" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>328</v>
-      </c>
       <c r="C109" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I109" s="8"/>
-      <c r="J109" s="8"/>
-      <c r="K109" s="8"/>
+      <c r="J109" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="K109" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="L109" s="8"/>
       <c r="M109" s="8"/>
       <c r="N109" s="8"/>
@@ -6063,32 +6145,36 @@
       <c r="Z109" s="6"/>
       <c r="AA109" s="6"/>
     </row>
-    <row r="110" spans="1:27" ht="51.75" thickBot="1">
+    <row r="110" spans="1:27" ht="90" thickBot="1">
       <c r="A110" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="C110" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="B110" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>331</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I110" s="8"/>
-      <c r="J110" s="8"/>
-      <c r="K110" s="8"/>
+      <c r="J110" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="K110" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="L110" s="8"/>
       <c r="M110" s="8"/>
       <c r="N110" s="8"/>
@@ -6108,30 +6194,34 @@
     </row>
     <row r="111" spans="1:27" ht="51.75" thickBot="1">
       <c r="A111" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B111" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>334</v>
-      </c>
       <c r="C111" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I111" s="8"/>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
+      <c r="J111" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="K111" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="L111" s="8"/>
       <c r="M111" s="8"/>
       <c r="N111" s="8"/>
@@ -6149,34 +6239,38 @@
       <c r="Z111" s="6"/>
       <c r="AA111" s="6"/>
     </row>
-    <row r="112" spans="1:27" ht="51.75" thickBot="1">
+    <row r="112" spans="1:27" ht="64.5" thickBot="1">
       <c r="A112" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>336</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>337</v>
-      </c>
       <c r="C112" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="I112" s="8"/>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
+      <c r="J112" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="K112" s="8" t="s">
+        <v>35</v>
+      </c>
       <c r="L112" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="M112" s="8"/>
       <c r="N112" s="8"/>
@@ -6252,15 +6346,23 @@
       <c r="Z114" s="6"/>
       <c r="AA114" s="6"/>
     </row>
-    <row r="115" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A115" s="8"/>
-      <c r="B115" s="8"/>
+    <row r="115" spans="1:27" ht="39" thickBot="1">
+      <c r="A115" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>364</v>
+      </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
+      <c r="F115" s="8" t="s">
+        <v>365</v>
+      </c>
       <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
+      <c r="H115" s="15" t="s">
+        <v>350</v>
+      </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>

--- a/Results/np_swab_results.xlsx
+++ b/Results/np_swab_results.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="389">
   <si>
     <t>Date of test</t>
   </si>
@@ -520,9 +520,6 @@
     <t>img/HP/HPNP.jpg</t>
   </si>
   <si>
-    <t>Sending HP_NH to UW virology for PCR this afternoon I think a rinse/elution step is needed for the sample collection test since many of these designs shouldn't be expected to transfer well to a slide but can still elute into the VTM-Jenny</t>
-  </si>
-  <si>
     <t>C_1</t>
   </si>
   <si>
@@ -530,9 +527,6 @@
   </si>
   <si>
     <t>img/Carbon/C1.jpg</t>
-  </si>
-  <si>
-    <t>Carbon 3D (Ramy Arnaout; rarnaout@bidmc.harvard.edu)</t>
   </si>
   <si>
     <t>Pass (good stiffness of handle, and flexible tip), tapered more flexible neck would be better</t>
@@ -866,12 +860,6 @@
     <t>(not tested, only one swab which was tested for PCR)</t>
   </si>
   <si>
-    <t>(In testing)</t>
-  </si>
-  <si>
-    <t>(In-testing)</t>
-  </si>
-  <si>
     <t>DOWEL. For material testing</t>
   </si>
   <si>
@@ -1122,6 +1110,87 @@
   </si>
   <si>
     <t>C 29C</t>
+  </si>
+  <si>
+    <t>passed</t>
+  </si>
+  <si>
+    <t>C_3</t>
+  </si>
+  <si>
+    <t>4mm voro</t>
+  </si>
+  <si>
+    <t>March 26th, 2020</t>
+  </si>
+  <si>
+    <t>img/Carbon/C_3</t>
+  </si>
+  <si>
+    <t>keysplint Soft Clear</t>
+  </si>
+  <si>
+    <t>dreve PCU 90 N2 15 min</t>
+  </si>
+  <si>
+    <t>Carbon3D. Keshav Swarup</t>
+  </si>
+  <si>
+    <t>Did not pass (tip head too firm, would create a neck for more flexibility at the end, and would put breakpoint from tip head end at least 7-10cm from the end.</t>
+  </si>
+  <si>
+    <t>*pass (presumably same material as C!)</t>
+  </si>
+  <si>
+    <t>C_4</t>
+  </si>
+  <si>
+    <t>3mm voro</t>
+  </si>
+  <si>
+    <t>img/Carbon/C_4</t>
+  </si>
+  <si>
+    <t>Did not pass (tip head too firm, would create a neck for more flexibility at the end, and would put breakpoint from tip head end at least 7-10cm from the end).</t>
+  </si>
+  <si>
+    <t>C_5</t>
+  </si>
+  <si>
+    <t>USF</t>
+  </si>
+  <si>
+    <t>img/Carbon/C_5</t>
+  </si>
+  <si>
+    <t>Did not pass (tip head too sharp and stiff although bristeled head may perform better ultmately for specimen capture. Body design is good)</t>
+  </si>
+  <si>
+    <t>C_6</t>
+  </si>
+  <si>
+    <t>long bulb</t>
+  </si>
+  <si>
+    <t>img/Carbon/C_6</t>
+  </si>
+  <si>
+    <t>Pass (unique design, and may be preferable to others given logner head/more absorption, and flexibility of entire head while maintaining shape well after deformation)</t>
+  </si>
+  <si>
+    <t>**likely a good design, the head is longer and flexible and probably can pass deeper as well as pickup more material</t>
+  </si>
+  <si>
+    <t>C_7</t>
+  </si>
+  <si>
+    <t>3mm 1.5mm neck</t>
+  </si>
+  <si>
+    <t>img/Carbon/C_7</t>
+  </si>
+  <si>
+    <t>Pass (body design std Copan, tip soft enough)</t>
   </si>
 </sst>
 </file>
@@ -1248,7 +1317,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1283,7 +1352,6 @@
     <xf numFmtId="15" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1597,7 +1665,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1608,7 +1676,7 @@
   <dimension ref="A1:AA1026"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B121" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" sqref="A1:AA1025"/>
@@ -1632,7 +1700,7 @@
   <sheetData>
     <row r="1" spans="1:27" ht="51.75" thickBot="1">
       <c r="A1" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>90</v>
@@ -2022,7 +2090,7 @@
     </row>
     <row r="9" spans="1:27" ht="39" thickBot="1">
       <c r="A9" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="7">
@@ -2470,7 +2538,7 @@
         <v>35</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="N19" s="8"/>
       <c r="O19" s="6"/>
@@ -2794,7 +2862,7 @@
         <v>35</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L27" s="6" t="s">
         <v>35</v>
@@ -3196,7 +3264,7 @@
         <v>86</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
@@ -3697,7 +3765,7 @@
       <c r="Z49" s="6"/>
       <c r="AA49" s="6"/>
     </row>
-    <row r="50" spans="1:27" ht="281.25" thickBot="1">
+    <row r="50" spans="1:27" ht="192" thickBot="1">
       <c r="A50" s="8" t="s">
         <v>162</v>
       </c>
@@ -3729,7 +3797,7 @@
         <v>35</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>165</v>
+        <v>362</v>
       </c>
       <c r="N50" s="8"/>
       <c r="O50" s="6"/>
@@ -3806,10 +3874,10 @@
     </row>
     <row r="53" spans="1:27" ht="64.5" thickBot="1">
       <c r="A53" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="C53" s="11">
         <v>43913</v>
@@ -3818,16 +3886,16 @@
         <v>21</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K53" s="8" t="s">
         <v>35</v>
@@ -3851,12 +3919,12 @@
       <c r="Z53" s="6"/>
       <c r="AA53" s="6"/>
     </row>
-    <row r="54" spans="1:27" ht="51.75" thickBot="1">
+    <row r="54" spans="1:27" ht="64.5" thickBot="1">
       <c r="A54" s="8" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C54" s="11">
         <v>43913</v>
@@ -3865,16 +3933,16 @@
         <v>21</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="12" t="s">
-        <v>169</v>
+      <c r="H54" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K54" s="8" t="s">
         <v>35</v>
@@ -3956,10 +4024,10 @@
     </row>
     <row r="57" spans="1:27" ht="64.5" thickBot="1">
       <c r="A57" s="8" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C57" s="11">
         <v>43913</v>
@@ -3968,18 +4036,18 @@
         <v>21</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G57" s="8"/>
       <c r="H57" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
@@ -4001,10 +4069,10 @@
     </row>
     <row r="58" spans="1:27" ht="64.5" thickBot="1">
       <c r="A58" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C58" s="11">
         <v>43913</v>
@@ -4013,18 +4081,18 @@
         <v>21</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F58" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K58" s="8"/>
       <c r="L58" s="8"/>
@@ -4046,10 +4114,10 @@
     </row>
     <row r="59" spans="1:27" ht="64.5" thickBot="1">
       <c r="A59" s="8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C59" s="11">
         <v>43913</v>
@@ -4058,18 +4126,18 @@
         <v>21</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G59" s="8"/>
       <c r="H59" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K59" s="8" t="s">
         <v>35</v>
@@ -4095,10 +4163,10 @@
     </row>
     <row r="60" spans="1:27" ht="64.5" thickBot="1">
       <c r="A60" s="8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C60" s="11">
         <v>43913</v>
@@ -4107,18 +4175,18 @@
         <v>21</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F60" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K60" s="8" t="s">
         <v>35</v>
@@ -4142,10 +4210,10 @@
     </row>
     <row r="61" spans="1:27" ht="64.5" thickBot="1">
       <c r="A61" s="8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C61" s="11">
         <v>43913</v>
@@ -4154,18 +4222,18 @@
         <v>21</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G61" s="8"/>
       <c r="H61" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
@@ -4187,10 +4255,10 @@
     </row>
     <row r="62" spans="1:27" ht="64.5" thickBot="1">
       <c r="A62" s="8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C62" s="11">
         <v>43913</v>
@@ -4199,18 +4267,18 @@
         <v>21</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>35</v>
@@ -4234,10 +4302,10 @@
     </row>
     <row r="63" spans="1:27" ht="64.5" thickBot="1">
       <c r="A63" s="8" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C63" s="11">
         <v>43913</v>
@@ -4246,18 +4314,18 @@
         <v>21</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G63" s="8"/>
       <c r="H63" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K63" s="8" t="s">
         <v>35</v>
@@ -4281,10 +4349,10 @@
     </row>
     <row r="64" spans="1:27" ht="64.5" thickBot="1">
       <c r="A64" s="8" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C64" s="11">
         <v>43913</v>
@@ -4293,18 +4361,18 @@
         <v>21</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K64" s="8"/>
       <c r="L64" s="8"/>
@@ -4384,36 +4452,36 @@
     </row>
     <row r="67" spans="1:27" ht="26.25" thickBot="1">
       <c r="A67" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>196</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="D67" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G67" s="8"/>
-      <c r="H67" s="13" t="s">
-        <v>200</v>
+      <c r="H67" s="12" t="s">
+        <v>198</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K67" s="8" t="s">
         <v>35</v>
       </c>
       <c r="L67" s="8" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="M67" s="8"/>
       <c r="N67" s="8"/>
@@ -4462,19 +4530,19 @@
     </row>
     <row r="69" spans="1:27" ht="64.5" thickBot="1">
       <c r="A69" s="8" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D69" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
@@ -4483,13 +4551,13 @@
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>35</v>
       </c>
       <c r="L69" s="8" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="8"/>
@@ -4509,19 +4577,19 @@
     </row>
     <row r="70" spans="1:27" ht="64.5" thickBot="1">
       <c r="A70" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>205</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="D70" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E70" s="14" t="s">
-        <v>267</v>
+      <c r="E70" s="13" t="s">
+        <v>265</v>
       </c>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -4530,7 +4598,7 @@
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K70" s="8" t="s">
         <v>35</v>
@@ -4612,34 +4680,34 @@
     </row>
     <row r="73" spans="1:27" ht="51.75" thickBot="1">
       <c r="A73" s="8" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D73" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K73" s="8" t="s">
         <v>35</v>
       </c>
       <c r="L73" s="8" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="M73" s="8"/>
       <c r="N73" s="8"/>
@@ -4717,34 +4785,34 @@
     </row>
     <row r="76" spans="1:27" ht="51.75" thickBot="1">
       <c r="A76" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D76" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K76" s="8" t="s">
         <v>35</v>
       </c>
       <c r="L76" s="8" t="s">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="M76" s="8"/>
       <c r="N76" s="8"/>
@@ -4764,28 +4832,28 @@
     </row>
     <row r="77" spans="1:27" ht="64.5" thickBot="1">
       <c r="A77" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="B77" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>219</v>
       </c>
       <c r="D77" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K77" s="8" t="s">
         <v>35</v>
@@ -4809,28 +4877,28 @@
     </row>
     <row r="78" spans="1:27" ht="39" thickBot="1">
       <c r="A78" s="8" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D78" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K78" s="8" t="s">
         <v>35</v>
@@ -4854,28 +4922,28 @@
     </row>
     <row r="79" spans="1:27" ht="51.75" thickBot="1">
       <c r="A79" s="8" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D79" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K79" s="8" t="s">
         <v>35</v>
@@ -4899,28 +4967,28 @@
     </row>
     <row r="80" spans="1:27" ht="39" thickBot="1">
       <c r="A80" s="8" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D80" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>35</v>
@@ -4944,24 +5012,24 @@
     </row>
     <row r="81" spans="1:27" ht="26.25" thickBot="1">
       <c r="A81" s="8" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D81" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
@@ -5045,31 +5113,31 @@
     </row>
     <row r="84" spans="1:27" ht="51.75" thickBot="1">
       <c r="A84" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L84" s="8"/>
       <c r="M84" s="8"/>
@@ -5090,31 +5158,31 @@
     </row>
     <row r="85" spans="1:27" ht="51.75" thickBot="1">
       <c r="A85" s="8" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D85" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L85" s="8"/>
       <c r="M85" s="8"/>
@@ -5135,31 +5203,31 @@
     </row>
     <row r="86" spans="1:27" ht="51.75" thickBot="1">
       <c r="A86" s="8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D86" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L86" s="8"/>
       <c r="M86" s="8"/>
@@ -5180,31 +5248,31 @@
     </row>
     <row r="87" spans="1:27" ht="51.75" thickBot="1">
       <c r="A87" s="8" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D87" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F87" s="8"/>
       <c r="G87" s="8"/>
       <c r="H87" s="8" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="L87" s="8"/>
       <c r="M87" s="8"/>
@@ -5283,30 +5351,30 @@
     </row>
     <row r="90" spans="1:27" ht="51.75" thickBot="1">
       <c r="A90" s="8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="8" t="s">
-        <v>281</v>
+        <v>362</v>
       </c>
       <c r="M90" s="8"/>
       <c r="N90" s="8"/>
@@ -5326,26 +5394,26 @@
     </row>
     <row r="91" spans="1:27" ht="51.75" thickBot="1">
       <c r="A91" s="8" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
@@ -5369,26 +5437,26 @@
     </row>
     <row r="92" spans="1:27" ht="51.75" thickBot="1">
       <c r="A92" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D92" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
@@ -5412,26 +5480,26 @@
     </row>
     <row r="93" spans="1:27" ht="51.75" thickBot="1">
       <c r="A93" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D93" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
@@ -5513,30 +5581,30 @@
     </row>
     <row r="96" spans="1:27" ht="51.75" thickBot="1">
       <c r="A96" s="8" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="8" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="8" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="M96" s="8"/>
       <c r="N96" s="8"/>
@@ -5556,30 +5624,30 @@
     </row>
     <row r="97" spans="1:27" ht="51.75" thickBot="1">
       <c r="A97" s="8" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D97" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E97" s="8"/>
       <c r="F97" s="8" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G97" s="8"/>
       <c r="H97" s="8" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="8" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="M97" s="8"/>
       <c r="N97" s="8"/>
@@ -5599,30 +5667,30 @@
     </row>
     <row r="98" spans="1:27" ht="51.75" thickBot="1">
       <c r="A98" s="8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D98" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E98" s="8"/>
       <c r="F98" s="8" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="8" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="8" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="M98" s="8"/>
       <c r="N98" s="8"/>
@@ -5642,24 +5710,24 @@
     </row>
     <row r="99" spans="1:27" ht="51.75" thickBot="1">
       <c r="A99" s="8" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D99" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E99" s="8"/>
       <c r="F99" s="8" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G99" s="8"/>
       <c r="H99" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
@@ -5683,24 +5751,24 @@
     </row>
     <row r="100" spans="1:27" ht="51.75" thickBot="1">
       <c r="A100" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E100" s="8"/>
       <c r="F100" s="8" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
@@ -5724,30 +5792,30 @@
     </row>
     <row r="101" spans="1:27" ht="115.5" thickBot="1">
       <c r="A101" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D101" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E101" s="8" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K101" s="8" t="s">
         <v>35</v>
@@ -5771,30 +5839,30 @@
     </row>
     <row r="102" spans="1:27" ht="115.5" thickBot="1">
       <c r="A102" s="8" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D102" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="K102" s="8" t="s">
         <v>35</v>
@@ -5818,30 +5886,30 @@
     </row>
     <row r="103" spans="1:27" ht="77.25" thickBot="1">
       <c r="A103" s="8" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D103" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F103" s="8" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G103" s="8"/>
       <c r="H103" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="K103" s="8" t="s">
         <v>35</v>
@@ -5865,33 +5933,33 @@
     </row>
     <row r="104" spans="1:27" ht="51.75" thickBot="1">
       <c r="A104" s="8" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D104" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E104" s="8" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K104" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L104" s="8"/>
       <c r="M104" s="8"/>
@@ -5912,30 +5980,30 @@
     </row>
     <row r="105" spans="1:27" ht="77.25" thickBot="1">
       <c r="A105" s="8" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D105" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G105" s="8"/>
       <c r="H105" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K105" s="8" t="s">
         <v>35</v>
@@ -5959,33 +6027,33 @@
     </row>
     <row r="106" spans="1:27" ht="90" thickBot="1">
       <c r="A106" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D106" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E106" s="8" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K106" s="8" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="L106" s="8"/>
       <c r="M106" s="8"/>
@@ -6006,30 +6074,30 @@
     </row>
     <row r="107" spans="1:27" ht="90" thickBot="1">
       <c r="A107" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E107" s="8" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G107" s="8"/>
       <c r="H107" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K107" s="8" t="s">
         <v>35</v>
@@ -6053,30 +6121,30 @@
     </row>
     <row r="108" spans="1:27" ht="77.25" thickBot="1">
       <c r="A108" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D108" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E108" s="8" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="K108" s="8" t="s">
         <v>35</v>
@@ -6100,30 +6168,30 @@
     </row>
     <row r="109" spans="1:27" ht="77.25" thickBot="1">
       <c r="A109" s="8" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E109" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G109" s="8"/>
       <c r="H109" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="K109" s="8" t="s">
         <v>35</v>
@@ -6147,30 +6215,30 @@
     </row>
     <row r="110" spans="1:27" ht="90" thickBot="1">
       <c r="A110" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D110" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E110" s="8" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K110" s="8" t="s">
         <v>35</v>
@@ -6194,30 +6262,30 @@
     </row>
     <row r="111" spans="1:27" ht="51.75" thickBot="1">
       <c r="A111" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D111" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E111" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G111" s="8"/>
       <c r="H111" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K111" s="8" t="s">
         <v>35</v>
@@ -6241,36 +6309,36 @@
     </row>
     <row r="112" spans="1:27" ht="64.5" thickBot="1">
       <c r="A112" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="D112" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E112" s="8" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="8" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="K112" s="8" t="s">
         <v>35</v>
       </c>
       <c r="L112" s="8" t="s">
-        <v>280</v>
+        <v>35</v>
       </c>
       <c r="M112" s="8"/>
       <c r="N112" s="8"/>
@@ -6348,20 +6416,20 @@
     </row>
     <row r="115" spans="1:27" ht="39" thickBot="1">
       <c r="A115" s="8" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="G115" s="8"/>
-      <c r="H115" s="15" t="s">
-        <v>350</v>
+      <c r="H115" s="14" t="s">
+        <v>346</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
@@ -6441,19 +6509,39 @@
       <c r="Z117" s="6"/>
       <c r="AA117" s="6"/>
     </row>
-    <row r="118" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A118" s="8"/>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
+    <row r="118" spans="1:27" ht="90" thickBot="1">
+      <c r="A118" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="H118" s="8" t="s">
+        <v>369</v>
+      </c>
       <c r="I118" s="8"/>
-      <c r="J118" s="8"/>
+      <c r="J118" s="8" t="s">
+        <v>370</v>
+      </c>
       <c r="K118" s="8"/>
-      <c r="L118" s="8"/>
+      <c r="L118" s="8" t="s">
+        <v>371</v>
+      </c>
       <c r="M118" s="8"/>
       <c r="N118" s="8"/>
       <c r="O118" s="6"/>
@@ -6470,19 +6558,39 @@
       <c r="Z118" s="6"/>
       <c r="AA118" s="6"/>
     </row>
-    <row r="119" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
+    <row r="119" spans="1:27" ht="90" thickBot="1">
+      <c r="A119" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D119" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G119" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H119" s="8" t="s">
+        <v>369</v>
+      </c>
       <c r="I119" s="8"/>
-      <c r="J119" s="8"/>
+      <c r="J119" s="8" t="s">
+        <v>375</v>
+      </c>
       <c r="K119" s="8"/>
-      <c r="L119" s="8"/>
+      <c r="L119" s="8" t="s">
+        <v>371</v>
+      </c>
       <c r="M119" s="8"/>
       <c r="N119" s="8"/>
       <c r="O119" s="6"/>
@@ -6499,19 +6607,39 @@
       <c r="Z119" s="6"/>
       <c r="AA119" s="6"/>
     </row>
-    <row r="120" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A120" s="8"/>
-      <c r="B120" s="8"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
+    <row r="120" spans="1:27" ht="77.25" thickBot="1">
+      <c r="A120" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D120" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G120" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H120" s="8" t="s">
+        <v>369</v>
+      </c>
       <c r="I120" s="8"/>
-      <c r="J120" s="8"/>
+      <c r="J120" s="8" t="s">
+        <v>379</v>
+      </c>
       <c r="K120" s="8"/>
-      <c r="L120" s="8"/>
+      <c r="L120" s="8" t="s">
+        <v>371</v>
+      </c>
       <c r="M120" s="8"/>
       <c r="N120" s="8"/>
       <c r="O120" s="6"/>
@@ -6528,20 +6656,42 @@
       <c r="Z120" s="6"/>
       <c r="AA120" s="6"/>
     </row>
-    <row r="121" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A121" s="8"/>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
+    <row r="121" spans="1:27" ht="128.25" thickBot="1">
+      <c r="A121" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G121" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H121" s="8" t="s">
+        <v>369</v>
+      </c>
       <c r="I121" s="8"/>
-      <c r="J121" s="8"/>
+      <c r="J121" s="8" t="s">
+        <v>383</v>
+      </c>
       <c r="K121" s="8"/>
-      <c r="L121" s="8"/>
-      <c r="M121" s="8"/>
+      <c r="L121" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="M121" s="8" t="s">
+        <v>384</v>
+      </c>
       <c r="N121" s="8"/>
       <c r="O121" s="6"/>
       <c r="P121" s="6"/>
@@ -6557,19 +6707,39 @@
       <c r="Z121" s="6"/>
       <c r="AA121" s="6"/>
     </row>
-    <row r="122" spans="1:27" ht="16.5" thickBot="1">
-      <c r="A122" s="8"/>
-      <c r="B122" s="8"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
+    <row r="122" spans="1:27" ht="64.5" thickBot="1">
+      <c r="A122" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="H122" s="8" t="s">
+        <v>369</v>
+      </c>
       <c r="I122" s="8"/>
-      <c r="J122" s="8"/>
+      <c r="J122" s="8" t="s">
+        <v>388</v>
+      </c>
       <c r="K122" s="8"/>
-      <c r="L122" s="8"/>
+      <c r="L122" s="8" t="s">
+        <v>371</v>
+      </c>
       <c r="M122" s="8"/>
       <c r="N122" s="8"/>
       <c r="O122" s="6"/>
